--- a/Engine/참좋은간편건강보험1904_기초데이터_20200805.xlsx
+++ b/Engine/참좋은간편건강보험1904_기초데이터_20200805.xlsx
@@ -11,7 +11,7 @@
     <sheet name="해지율" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">위험률!$A$1:$C$809</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">위험률!$A$1:$C$2425</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="30">
   <si>
     <t>위험률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,24 @@
   <si>
     <t>상해수술위로금위험률_상해5종수술비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질병수술위로금위험률_질병1종수술비율</t>
+  </si>
+  <si>
+    <t>질병수술위로금위험률_질병2종수술비율</t>
+  </si>
+  <si>
+    <t>질병수술위로금위험률_질병3종수술비율</t>
+  </si>
+  <si>
+    <t>질병수술위로금위험률_질병4종수술비율</t>
+  </si>
+  <si>
+    <t>질병수술위로금위험률_질병5종수술비율</t>
+  </si>
+  <si>
+    <t>간편고지질병사망률</t>
   </si>
 </sst>
 </file>
@@ -460,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1920"/>
+  <dimension ref="A1:I2526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1412" workbookViewId="0">
-      <selection activeCell="C1426" sqref="C1426"/>
+    <sheetView tabSelected="1" topLeftCell="A2404" workbookViewId="0">
+      <selection activeCell="B2425" sqref="B2425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23492,6 +23510,7272 @@
         <v>100</v>
       </c>
       <c r="C1920" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:3">
+      <c r="A1921" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1921" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1921" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:3">
+      <c r="A1922" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1922" s="2">
+        <f>B1921+1</f>
+        <v>1</v>
+      </c>
+      <c r="C1922" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:3">
+      <c r="A1923" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1923" s="2">
+        <f t="shared" ref="B1923:B1986" si="38">B1922+1</f>
+        <v>2</v>
+      </c>
+      <c r="C1923" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:3">
+      <c r="A1924" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1924" s="2">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="C1924" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:3">
+      <c r="A1925" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1925" s="2">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+      <c r="C1925" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:3">
+      <c r="A1926" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1926" s="2">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="C1926" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:3">
+      <c r="A1927" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1927" s="2">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="C1927" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:3">
+      <c r="A1928" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1928" s="2">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+      <c r="C1928" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:3">
+      <c r="A1929" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1929" s="2">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="C1929" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:3">
+      <c r="A1930" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1930" s="2">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="C1930" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:3">
+      <c r="A1931" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1931" s="2">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="C1931" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:3">
+      <c r="A1932" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1932" s="2">
+        <f t="shared" si="38"/>
+        <v>11</v>
+      </c>
+      <c r="C1932" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:3">
+      <c r="A1933" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1933" s="2">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="C1933" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:3">
+      <c r="A1934" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1934" s="2">
+        <f t="shared" si="38"/>
+        <v>13</v>
+      </c>
+      <c r="C1934" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:3">
+      <c r="A1935" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1935" s="2">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="C1935" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:3">
+      <c r="A1936" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1936" s="2">
+        <f t="shared" si="38"/>
+        <v>15</v>
+      </c>
+      <c r="C1936" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:3">
+      <c r="A1937" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1937" s="2">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="C1937" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:3">
+      <c r="A1938" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1938" s="2">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="C1938" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:3">
+      <c r="A1939" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1939" s="2">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="C1939" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:3">
+      <c r="A1940" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1940" s="2">
+        <f t="shared" si="38"/>
+        <v>19</v>
+      </c>
+      <c r="C1940" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:3">
+      <c r="A1941" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1941" s="2">
+        <f t="shared" si="38"/>
+        <v>20</v>
+      </c>
+      <c r="C1941" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:3">
+      <c r="A1942" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1942" s="2">
+        <f t="shared" si="38"/>
+        <v>21</v>
+      </c>
+      <c r="C1942" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:3">
+      <c r="A1943" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1943" s="2">
+        <f t="shared" si="38"/>
+        <v>22</v>
+      </c>
+      <c r="C1943" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:3">
+      <c r="A1944" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1944" s="2">
+        <f t="shared" si="38"/>
+        <v>23</v>
+      </c>
+      <c r="C1944" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:3">
+      <c r="A1945" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1945" s="2">
+        <f t="shared" si="38"/>
+        <v>24</v>
+      </c>
+      <c r="C1945" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:3">
+      <c r="A1946" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1946" s="2">
+        <f t="shared" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="C1946" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:3">
+      <c r="A1947" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1947" s="2">
+        <f t="shared" si="38"/>
+        <v>26</v>
+      </c>
+      <c r="C1947" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:3">
+      <c r="A1948" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1948" s="2">
+        <f t="shared" si="38"/>
+        <v>27</v>
+      </c>
+      <c r="C1948" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:3">
+      <c r="A1949" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1949" s="2">
+        <f t="shared" si="38"/>
+        <v>28</v>
+      </c>
+      <c r="C1949" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:3">
+      <c r="A1950" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1950" s="2">
+        <f t="shared" si="38"/>
+        <v>29</v>
+      </c>
+      <c r="C1950" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:3">
+      <c r="A1951" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1951" s="2">
+        <f t="shared" si="38"/>
+        <v>30</v>
+      </c>
+      <c r="C1951" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:3">
+      <c r="A1952" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1952" s="2">
+        <f t="shared" si="38"/>
+        <v>31</v>
+      </c>
+      <c r="C1952" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:3">
+      <c r="A1953" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1953" s="2">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="C1953" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:3">
+      <c r="A1954" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1954" s="2">
+        <f t="shared" si="38"/>
+        <v>33</v>
+      </c>
+      <c r="C1954" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:3">
+      <c r="A1955" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1955" s="2">
+        <f t="shared" si="38"/>
+        <v>34</v>
+      </c>
+      <c r="C1955" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:3">
+      <c r="A1956" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1956" s="2">
+        <f t="shared" si="38"/>
+        <v>35</v>
+      </c>
+      <c r="C1956" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:3">
+      <c r="A1957" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1957" s="2">
+        <f t="shared" si="38"/>
+        <v>36</v>
+      </c>
+      <c r="C1957" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:3">
+      <c r="A1958" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1958" s="2">
+        <f t="shared" si="38"/>
+        <v>37</v>
+      </c>
+      <c r="C1958" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:3">
+      <c r="A1959" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1959" s="2">
+        <f t="shared" si="38"/>
+        <v>38</v>
+      </c>
+      <c r="C1959" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:3">
+      <c r="A1960" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1960" s="2">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="C1960" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:3">
+      <c r="A1961" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1961" s="2">
+        <f t="shared" si="38"/>
+        <v>40</v>
+      </c>
+      <c r="C1961" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:3">
+      <c r="A1962" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1962" s="2">
+        <f t="shared" si="38"/>
+        <v>41</v>
+      </c>
+      <c r="C1962" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:3">
+      <c r="A1963" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1963" s="2">
+        <f t="shared" si="38"/>
+        <v>42</v>
+      </c>
+      <c r="C1963" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:3">
+      <c r="A1964" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1964" s="2">
+        <f t="shared" si="38"/>
+        <v>43</v>
+      </c>
+      <c r="C1964" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:3">
+      <c r="A1965" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1965" s="2">
+        <f t="shared" si="38"/>
+        <v>44</v>
+      </c>
+      <c r="C1965" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:3">
+      <c r="A1966" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1966" s="2">
+        <f t="shared" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="C1966" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:3">
+      <c r="A1967" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1967" s="2">
+        <f t="shared" si="38"/>
+        <v>46</v>
+      </c>
+      <c r="C1967" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:3">
+      <c r="A1968" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1968" s="2">
+        <f t="shared" si="38"/>
+        <v>47</v>
+      </c>
+      <c r="C1968" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:3">
+      <c r="A1969" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1969" s="2">
+        <f t="shared" si="38"/>
+        <v>48</v>
+      </c>
+      <c r="C1969" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:3">
+      <c r="A1970" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1970" s="2">
+        <f t="shared" si="38"/>
+        <v>49</v>
+      </c>
+      <c r="C1970" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:3">
+      <c r="A1971" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1971" s="2">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="C1971" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:3">
+      <c r="A1972" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1972" s="2">
+        <f t="shared" si="38"/>
+        <v>51</v>
+      </c>
+      <c r="C1972" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:3">
+      <c r="A1973" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1973" s="2">
+        <f t="shared" si="38"/>
+        <v>52</v>
+      </c>
+      <c r="C1973" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:3">
+      <c r="A1974" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1974" s="2">
+        <f t="shared" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="C1974" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:3">
+      <c r="A1975" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1975" s="2">
+        <f t="shared" si="38"/>
+        <v>54</v>
+      </c>
+      <c r="C1975" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:3">
+      <c r="A1976" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1976" s="2">
+        <f t="shared" si="38"/>
+        <v>55</v>
+      </c>
+      <c r="C1976" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:3">
+      <c r="A1977" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1977" s="2">
+        <f t="shared" si="38"/>
+        <v>56</v>
+      </c>
+      <c r="C1977" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:3">
+      <c r="A1978" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1978" s="2">
+        <f t="shared" si="38"/>
+        <v>57</v>
+      </c>
+      <c r="C1978" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:3">
+      <c r="A1979" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1979" s="2">
+        <f t="shared" si="38"/>
+        <v>58</v>
+      </c>
+      <c r="C1979" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:3">
+      <c r="A1980" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1980" s="2">
+        <f t="shared" si="38"/>
+        <v>59</v>
+      </c>
+      <c r="C1980" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:3">
+      <c r="A1981" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1981" s="2">
+        <f t="shared" si="38"/>
+        <v>60</v>
+      </c>
+      <c r="C1981" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:3">
+      <c r="A1982" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1982" s="2">
+        <f t="shared" si="38"/>
+        <v>61</v>
+      </c>
+      <c r="C1982" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:3">
+      <c r="A1983" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1983" s="2">
+        <f t="shared" si="38"/>
+        <v>62</v>
+      </c>
+      <c r="C1983" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:3">
+      <c r="A1984" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1984" s="2">
+        <f t="shared" si="38"/>
+        <v>63</v>
+      </c>
+      <c r="C1984" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:3">
+      <c r="A1985" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1985" s="2">
+        <f t="shared" si="38"/>
+        <v>64</v>
+      </c>
+      <c r="C1985" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:3">
+      <c r="A1986" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1986" s="2">
+        <f t="shared" si="38"/>
+        <v>65</v>
+      </c>
+      <c r="C1986" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:3">
+      <c r="A1987" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1987" s="2">
+        <f t="shared" ref="B1987:B2021" si="39">B1986+1</f>
+        <v>66</v>
+      </c>
+      <c r="C1987" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:3">
+      <c r="A1988" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1988" s="2">
+        <f t="shared" si="39"/>
+        <v>67</v>
+      </c>
+      <c r="C1988" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:3">
+      <c r="A1989" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1989" s="2">
+        <f t="shared" si="39"/>
+        <v>68</v>
+      </c>
+      <c r="C1989" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:3">
+      <c r="A1990" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1990" s="2">
+        <f t="shared" si="39"/>
+        <v>69</v>
+      </c>
+      <c r="C1990" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:3">
+      <c r="A1991" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1991" s="2">
+        <f t="shared" si="39"/>
+        <v>70</v>
+      </c>
+      <c r="C1991" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:3">
+      <c r="A1992" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1992" s="2">
+        <f t="shared" si="39"/>
+        <v>71</v>
+      </c>
+      <c r="C1992" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:3">
+      <c r="A1993" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1993" s="2">
+        <f t="shared" si="39"/>
+        <v>72</v>
+      </c>
+      <c r="C1993" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:3">
+      <c r="A1994" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1994" s="2">
+        <f t="shared" si="39"/>
+        <v>73</v>
+      </c>
+      <c r="C1994" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:3">
+      <c r="A1995" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1995" s="2">
+        <f t="shared" si="39"/>
+        <v>74</v>
+      </c>
+      <c r="C1995" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:3">
+      <c r="A1996" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1996" s="2">
+        <f t="shared" si="39"/>
+        <v>75</v>
+      </c>
+      <c r="C1996" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:3">
+      <c r="A1997" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1997" s="2">
+        <f t="shared" si="39"/>
+        <v>76</v>
+      </c>
+      <c r="C1997" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:3">
+      <c r="A1998" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1998" s="2">
+        <f t="shared" si="39"/>
+        <v>77</v>
+      </c>
+      <c r="C1998" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:3">
+      <c r="A1999" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1999" s="2">
+        <f t="shared" si="39"/>
+        <v>78</v>
+      </c>
+      <c r="C1999" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:3">
+      <c r="A2000" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2000" s="2">
+        <f t="shared" si="39"/>
+        <v>79</v>
+      </c>
+      <c r="C2000" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:3">
+      <c r="A2001" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2001" s="2">
+        <f t="shared" si="39"/>
+        <v>80</v>
+      </c>
+      <c r="C2001" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:3">
+      <c r="A2002" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2002" s="2">
+        <f t="shared" si="39"/>
+        <v>81</v>
+      </c>
+      <c r="C2002" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:3">
+      <c r="A2003" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2003" s="2">
+        <f t="shared" si="39"/>
+        <v>82</v>
+      </c>
+      <c r="C2003" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:3">
+      <c r="A2004" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2004" s="2">
+        <f t="shared" si="39"/>
+        <v>83</v>
+      </c>
+      <c r="C2004" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:3">
+      <c r="A2005" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2005" s="2">
+        <f t="shared" si="39"/>
+        <v>84</v>
+      </c>
+      <c r="C2005" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:3">
+      <c r="A2006" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2006" s="2">
+        <f t="shared" si="39"/>
+        <v>85</v>
+      </c>
+      <c r="C2006" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:3">
+      <c r="A2007" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2007" s="2">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="C2007" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:3">
+      <c r="A2008" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2008" s="2">
+        <f t="shared" si="39"/>
+        <v>87</v>
+      </c>
+      <c r="C2008" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:3">
+      <c r="A2009" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2009" s="2">
+        <f t="shared" si="39"/>
+        <v>88</v>
+      </c>
+      <c r="C2009" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:3">
+      <c r="A2010" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2010" s="2">
+        <f t="shared" si="39"/>
+        <v>89</v>
+      </c>
+      <c r="C2010" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:3">
+      <c r="A2011" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2011" s="2">
+        <f t="shared" si="39"/>
+        <v>90</v>
+      </c>
+      <c r="C2011" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:3">
+      <c r="A2012" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2012" s="2">
+        <f t="shared" si="39"/>
+        <v>91</v>
+      </c>
+      <c r="C2012" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:3">
+      <c r="A2013" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2013" s="2">
+        <f t="shared" si="39"/>
+        <v>92</v>
+      </c>
+      <c r="C2013" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:3">
+      <c r="A2014" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2014" s="2">
+        <f t="shared" si="39"/>
+        <v>93</v>
+      </c>
+      <c r="C2014" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:3">
+      <c r="A2015" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2015" s="2">
+        <f t="shared" si="39"/>
+        <v>94</v>
+      </c>
+      <c r="C2015" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:3">
+      <c r="A2016" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2016" s="2">
+        <f t="shared" si="39"/>
+        <v>95</v>
+      </c>
+      <c r="C2016" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:3">
+      <c r="A2017" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2017" s="2">
+        <f t="shared" si="39"/>
+        <v>96</v>
+      </c>
+      <c r="C2017" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:3">
+      <c r="A2018" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2018" s="2">
+        <f t="shared" si="39"/>
+        <v>97</v>
+      </c>
+      <c r="C2018" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:3">
+      <c r="A2019" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2019" s="2">
+        <f t="shared" si="39"/>
+        <v>98</v>
+      </c>
+      <c r="C2019" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:3">
+      <c r="A2020" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2020" s="2">
+        <f t="shared" si="39"/>
+        <v>99</v>
+      </c>
+      <c r="C2020" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:3">
+      <c r="A2021" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2021" s="2">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+      <c r="C2021" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:3">
+      <c r="A2022" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2022" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2022" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:3">
+      <c r="A2023" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2023" s="2">
+        <f>B2022+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2023" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:3">
+      <c r="A2024" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2024" s="2">
+        <f t="shared" ref="B2024:B2087" si="40">B2023+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2024" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:3">
+      <c r="A2025" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2025" s="2">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="C2025" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:3">
+      <c r="A2026" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2026" s="2">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="C2026" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:3">
+      <c r="A2027" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2027" s="2">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="C2027" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:3">
+      <c r="A2028" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2028" s="2">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="C2028" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:3">
+      <c r="A2029" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2029" s="2">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="C2029" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:3">
+      <c r="A2030" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2030" s="2">
+        <f t="shared" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="C2030" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:3">
+      <c r="A2031" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2031" s="2">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="C2031" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:3">
+      <c r="A2032" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2032" s="2">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="C2032" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3">
+      <c r="A2033" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2033" s="2">
+        <f t="shared" si="40"/>
+        <v>11</v>
+      </c>
+      <c r="C2033" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:3">
+      <c r="A2034" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2034" s="2">
+        <f t="shared" si="40"/>
+        <v>12</v>
+      </c>
+      <c r="C2034" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3">
+      <c r="A2035" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2035" s="2">
+        <f t="shared" si="40"/>
+        <v>13</v>
+      </c>
+      <c r="C2035" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3">
+      <c r="A2036" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2036" s="2">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="C2036" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:3">
+      <c r="A2037" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2037" s="2">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="C2037" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:3">
+      <c r="A2038" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2038" s="2">
+        <f t="shared" si="40"/>
+        <v>16</v>
+      </c>
+      <c r="C2038" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:3">
+      <c r="A2039" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2039" s="2">
+        <f t="shared" si="40"/>
+        <v>17</v>
+      </c>
+      <c r="C2039" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:3">
+      <c r="A2040" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2040" s="2">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="C2040" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:3">
+      <c r="A2041" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2041" s="2">
+        <f t="shared" si="40"/>
+        <v>19</v>
+      </c>
+      <c r="C2041" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:3">
+      <c r="A2042" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2042" s="2">
+        <f t="shared" si="40"/>
+        <v>20</v>
+      </c>
+      <c r="C2042" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:3">
+      <c r="A2043" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2043" s="2">
+        <f t="shared" si="40"/>
+        <v>21</v>
+      </c>
+      <c r="C2043" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3">
+      <c r="A2044" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2044" s="2">
+        <f t="shared" si="40"/>
+        <v>22</v>
+      </c>
+      <c r="C2044" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:3">
+      <c r="A2045" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2045" s="2">
+        <f t="shared" si="40"/>
+        <v>23</v>
+      </c>
+      <c r="C2045" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3">
+      <c r="A2046" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2046" s="2">
+        <f t="shared" si="40"/>
+        <v>24</v>
+      </c>
+      <c r="C2046" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:3">
+      <c r="A2047" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2047" s="2">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="C2047" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3">
+      <c r="A2048" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2048" s="2">
+        <f t="shared" si="40"/>
+        <v>26</v>
+      </c>
+      <c r="C2048" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3">
+      <c r="A2049" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2049" s="2">
+        <f t="shared" si="40"/>
+        <v>27</v>
+      </c>
+      <c r="C2049" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:3">
+      <c r="A2050" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2050" s="2">
+        <f t="shared" si="40"/>
+        <v>28</v>
+      </c>
+      <c r="C2050" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:3">
+      <c r="A2051" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2051" s="2">
+        <f t="shared" si="40"/>
+        <v>29</v>
+      </c>
+      <c r="C2051" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:3">
+      <c r="A2052" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2052" s="2">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="C2052" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:3">
+      <c r="A2053" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2053" s="2">
+        <f t="shared" si="40"/>
+        <v>31</v>
+      </c>
+      <c r="C2053" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:3">
+      <c r="A2054" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2054" s="2">
+        <f t="shared" si="40"/>
+        <v>32</v>
+      </c>
+      <c r="C2054" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:3">
+      <c r="A2055" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2055" s="2">
+        <f t="shared" si="40"/>
+        <v>33</v>
+      </c>
+      <c r="C2055" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:3">
+      <c r="A2056" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2056" s="2">
+        <f t="shared" si="40"/>
+        <v>34</v>
+      </c>
+      <c r="C2056" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:3">
+      <c r="A2057" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2057" s="2">
+        <f t="shared" si="40"/>
+        <v>35</v>
+      </c>
+      <c r="C2057" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:3">
+      <c r="A2058" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2058" s="2">
+        <f t="shared" si="40"/>
+        <v>36</v>
+      </c>
+      <c r="C2058" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:3">
+      <c r="A2059" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2059" s="2">
+        <f t="shared" si="40"/>
+        <v>37</v>
+      </c>
+      <c r="C2059" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:3">
+      <c r="A2060" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2060" s="2">
+        <f t="shared" si="40"/>
+        <v>38</v>
+      </c>
+      <c r="C2060" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:3">
+      <c r="A2061" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2061" s="2">
+        <f t="shared" si="40"/>
+        <v>39</v>
+      </c>
+      <c r="C2061" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:3">
+      <c r="A2062" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2062" s="2">
+        <f t="shared" si="40"/>
+        <v>40</v>
+      </c>
+      <c r="C2062" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:3">
+      <c r="A2063" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2063" s="2">
+        <f t="shared" si="40"/>
+        <v>41</v>
+      </c>
+      <c r="C2063" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:3">
+      <c r="A2064" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2064" s="2">
+        <f t="shared" si="40"/>
+        <v>42</v>
+      </c>
+      <c r="C2064" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:3">
+      <c r="A2065" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2065" s="2">
+        <f t="shared" si="40"/>
+        <v>43</v>
+      </c>
+      <c r="C2065" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:3">
+      <c r="A2066" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2066" s="2">
+        <f t="shared" si="40"/>
+        <v>44</v>
+      </c>
+      <c r="C2066" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:3">
+      <c r="A2067" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2067" s="2">
+        <f t="shared" si="40"/>
+        <v>45</v>
+      </c>
+      <c r="C2067" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:3">
+      <c r="A2068" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2068" s="2">
+        <f t="shared" si="40"/>
+        <v>46</v>
+      </c>
+      <c r="C2068" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:3">
+      <c r="A2069" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2069" s="2">
+        <f t="shared" si="40"/>
+        <v>47</v>
+      </c>
+      <c r="C2069" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:3">
+      <c r="A2070" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2070" s="2">
+        <f t="shared" si="40"/>
+        <v>48</v>
+      </c>
+      <c r="C2070" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:3">
+      <c r="A2071" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2071" s="2">
+        <f t="shared" si="40"/>
+        <v>49</v>
+      </c>
+      <c r="C2071" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:3">
+      <c r="A2072" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2072" s="2">
+        <f t="shared" si="40"/>
+        <v>50</v>
+      </c>
+      <c r="C2072" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:3">
+      <c r="A2073" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2073" s="2">
+        <f t="shared" si="40"/>
+        <v>51</v>
+      </c>
+      <c r="C2073" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:3">
+      <c r="A2074" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2074" s="2">
+        <f t="shared" si="40"/>
+        <v>52</v>
+      </c>
+      <c r="C2074" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:3">
+      <c r="A2075" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2075" s="2">
+        <f t="shared" si="40"/>
+        <v>53</v>
+      </c>
+      <c r="C2075" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:3">
+      <c r="A2076" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2076" s="2">
+        <f t="shared" si="40"/>
+        <v>54</v>
+      </c>
+      <c r="C2076" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:3">
+      <c r="A2077" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2077" s="2">
+        <f t="shared" si="40"/>
+        <v>55</v>
+      </c>
+      <c r="C2077" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:3">
+      <c r="A2078" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2078" s="2">
+        <f t="shared" si="40"/>
+        <v>56</v>
+      </c>
+      <c r="C2078" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:3">
+      <c r="A2079" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2079" s="2">
+        <f t="shared" si="40"/>
+        <v>57</v>
+      </c>
+      <c r="C2079" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:3">
+      <c r="A2080" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2080" s="2">
+        <f t="shared" si="40"/>
+        <v>58</v>
+      </c>
+      <c r="C2080" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:3">
+      <c r="A2081" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2081" s="2">
+        <f t="shared" si="40"/>
+        <v>59</v>
+      </c>
+      <c r="C2081" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:3">
+      <c r="A2082" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2082" s="2">
+        <f t="shared" si="40"/>
+        <v>60</v>
+      </c>
+      <c r="C2082" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:3">
+      <c r="A2083" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2083" s="2">
+        <f t="shared" si="40"/>
+        <v>61</v>
+      </c>
+      <c r="C2083" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:3">
+      <c r="A2084" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2084" s="2">
+        <f t="shared" si="40"/>
+        <v>62</v>
+      </c>
+      <c r="C2084" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:3">
+      <c r="A2085" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2085" s="2">
+        <f t="shared" si="40"/>
+        <v>63</v>
+      </c>
+      <c r="C2085" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:3">
+      <c r="A2086" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2086" s="2">
+        <f t="shared" si="40"/>
+        <v>64</v>
+      </c>
+      <c r="C2086" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:3">
+      <c r="A2087" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2087" s="2">
+        <f t="shared" si="40"/>
+        <v>65</v>
+      </c>
+      <c r="C2087" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:3">
+      <c r="A2088" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2088" s="2">
+        <f t="shared" ref="B2088:B2122" si="41">B2087+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2088" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:3">
+      <c r="A2089" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2089" s="2">
+        <f t="shared" si="41"/>
+        <v>67</v>
+      </c>
+      <c r="C2089" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:3">
+      <c r="A2090" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2090" s="2">
+        <f t="shared" si="41"/>
+        <v>68</v>
+      </c>
+      <c r="C2090" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:3">
+      <c r="A2091" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2091" s="2">
+        <f t="shared" si="41"/>
+        <v>69</v>
+      </c>
+      <c r="C2091" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:3">
+      <c r="A2092" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2092" s="2">
+        <f t="shared" si="41"/>
+        <v>70</v>
+      </c>
+      <c r="C2092" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:3">
+      <c r="A2093" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2093" s="2">
+        <f t="shared" si="41"/>
+        <v>71</v>
+      </c>
+      <c r="C2093" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:3">
+      <c r="A2094" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2094" s="2">
+        <f t="shared" si="41"/>
+        <v>72</v>
+      </c>
+      <c r="C2094" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:3">
+      <c r="A2095" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2095" s="2">
+        <f t="shared" si="41"/>
+        <v>73</v>
+      </c>
+      <c r="C2095" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:3">
+      <c r="A2096" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2096" s="2">
+        <f t="shared" si="41"/>
+        <v>74</v>
+      </c>
+      <c r="C2096" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3">
+      <c r="A2097" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2097" s="2">
+        <f t="shared" si="41"/>
+        <v>75</v>
+      </c>
+      <c r="C2097" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3">
+      <c r="A2098" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2098" s="2">
+        <f t="shared" si="41"/>
+        <v>76</v>
+      </c>
+      <c r="C2098" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:3">
+      <c r="A2099" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2099" s="2">
+        <f t="shared" si="41"/>
+        <v>77</v>
+      </c>
+      <c r="C2099" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:3">
+      <c r="A2100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2100" s="2">
+        <f t="shared" si="41"/>
+        <v>78</v>
+      </c>
+      <c r="C2100" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:3">
+      <c r="A2101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2101" s="2">
+        <f t="shared" si="41"/>
+        <v>79</v>
+      </c>
+      <c r="C2101" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3">
+      <c r="A2102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2102" s="2">
+        <f t="shared" si="41"/>
+        <v>80</v>
+      </c>
+      <c r="C2102" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:3">
+      <c r="A2103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2103" s="2">
+        <f t="shared" si="41"/>
+        <v>81</v>
+      </c>
+      <c r="C2103" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3">
+      <c r="A2104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2104" s="2">
+        <f t="shared" si="41"/>
+        <v>82</v>
+      </c>
+      <c r="C2104" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3">
+      <c r="A2105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2105" s="2">
+        <f t="shared" si="41"/>
+        <v>83</v>
+      </c>
+      <c r="C2105" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3">
+      <c r="A2106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2106" s="2">
+        <f t="shared" si="41"/>
+        <v>84</v>
+      </c>
+      <c r="C2106" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3">
+      <c r="A2107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2107" s="2">
+        <f t="shared" si="41"/>
+        <v>85</v>
+      </c>
+      <c r="C2107" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:3">
+      <c r="A2108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2108" s="2">
+        <f t="shared" si="41"/>
+        <v>86</v>
+      </c>
+      <c r="C2108" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3">
+      <c r="A2109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2109" s="2">
+        <f t="shared" si="41"/>
+        <v>87</v>
+      </c>
+      <c r="C2109" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3">
+      <c r="A2110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2110" s="2">
+        <f t="shared" si="41"/>
+        <v>88</v>
+      </c>
+      <c r="C2110" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3">
+      <c r="A2111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2111" s="2">
+        <f t="shared" si="41"/>
+        <v>89</v>
+      </c>
+      <c r="C2111" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3">
+      <c r="A2112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2112" s="2">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="C2112" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:3">
+      <c r="A2113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2113" s="2">
+        <f t="shared" si="41"/>
+        <v>91</v>
+      </c>
+      <c r="C2113" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:3">
+      <c r="A2114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2114" s="2">
+        <f t="shared" si="41"/>
+        <v>92</v>
+      </c>
+      <c r="C2114" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:3">
+      <c r="A2115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2115" s="2">
+        <f t="shared" si="41"/>
+        <v>93</v>
+      </c>
+      <c r="C2115" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:3">
+      <c r="A2116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2116" s="2">
+        <f t="shared" si="41"/>
+        <v>94</v>
+      </c>
+      <c r="C2116" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:3">
+      <c r="A2117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2117" s="2">
+        <f t="shared" si="41"/>
+        <v>95</v>
+      </c>
+      <c r="C2117" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:3">
+      <c r="A2118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2118" s="2">
+        <f t="shared" si="41"/>
+        <v>96</v>
+      </c>
+      <c r="C2118" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:3">
+      <c r="A2119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2119" s="2">
+        <f t="shared" si="41"/>
+        <v>97</v>
+      </c>
+      <c r="C2119" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:3">
+      <c r="A2120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2120" s="2">
+        <f t="shared" si="41"/>
+        <v>98</v>
+      </c>
+      <c r="C2120" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:3">
+      <c r="A2121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2121" s="2">
+        <f t="shared" si="41"/>
+        <v>99</v>
+      </c>
+      <c r="C2121" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:3">
+      <c r="A2122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2122" s="2">
+        <f t="shared" si="41"/>
+        <v>100</v>
+      </c>
+      <c r="C2122" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:3">
+      <c r="A2123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2123" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2123" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:3">
+      <c r="A2124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2124" s="2">
+        <f>B2123+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2124" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:3">
+      <c r="A2125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2125" s="2">
+        <f t="shared" ref="B2125:B2188" si="42">B2124+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2125" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:3">
+      <c r="A2126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2126" s="2">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="C2126" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:3">
+      <c r="A2127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2127" s="2">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="C2127" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:3">
+      <c r="A2128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2128" s="2">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="C2128" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:3">
+      <c r="A2129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2129" s="2">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="C2129" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:3">
+      <c r="A2130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2130" s="2">
+        <f t="shared" si="42"/>
+        <v>7</v>
+      </c>
+      <c r="C2130" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:3">
+      <c r="A2131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2131" s="2">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="C2131" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:3">
+      <c r="A2132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2132" s="2">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="C2132" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:3">
+      <c r="A2133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2133" s="2">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="C2133" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:3">
+      <c r="A2134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2134" s="2">
+        <f t="shared" si="42"/>
+        <v>11</v>
+      </c>
+      <c r="C2134" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:3">
+      <c r="A2135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2135" s="2">
+        <f t="shared" si="42"/>
+        <v>12</v>
+      </c>
+      <c r="C2135" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:3">
+      <c r="A2136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2136" s="2">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="C2136" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:3">
+      <c r="A2137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2137" s="2">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="C2137" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:3">
+      <c r="A2138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2138" s="2">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="C2138" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:3">
+      <c r="A2139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2139" s="2">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="C2139" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:3">
+      <c r="A2140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2140" s="2">
+        <f t="shared" si="42"/>
+        <v>17</v>
+      </c>
+      <c r="C2140" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:3">
+      <c r="A2141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2141" s="2">
+        <f t="shared" si="42"/>
+        <v>18</v>
+      </c>
+      <c r="C2141" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:3">
+      <c r="A2142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2142" s="2">
+        <f t="shared" si="42"/>
+        <v>19</v>
+      </c>
+      <c r="C2142" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:3">
+      <c r="A2143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2143" s="2">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="C2143" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:3">
+      <c r="A2144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2144" s="2">
+        <f t="shared" si="42"/>
+        <v>21</v>
+      </c>
+      <c r="C2144" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:3">
+      <c r="A2145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2145" s="2">
+        <f t="shared" si="42"/>
+        <v>22</v>
+      </c>
+      <c r="C2145" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:3">
+      <c r="A2146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2146" s="2">
+        <f t="shared" si="42"/>
+        <v>23</v>
+      </c>
+      <c r="C2146" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:3">
+      <c r="A2147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2147" s="2">
+        <f t="shared" si="42"/>
+        <v>24</v>
+      </c>
+      <c r="C2147" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:3">
+      <c r="A2148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2148" s="2">
+        <f t="shared" si="42"/>
+        <v>25</v>
+      </c>
+      <c r="C2148" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:3">
+      <c r="A2149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2149" s="2">
+        <f t="shared" si="42"/>
+        <v>26</v>
+      </c>
+      <c r="C2149" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:3">
+      <c r="A2150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2150" s="2">
+        <f t="shared" si="42"/>
+        <v>27</v>
+      </c>
+      <c r="C2150" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:3">
+      <c r="A2151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2151" s="2">
+        <f t="shared" si="42"/>
+        <v>28</v>
+      </c>
+      <c r="C2151" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:3">
+      <c r="A2152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2152" s="2">
+        <f t="shared" si="42"/>
+        <v>29</v>
+      </c>
+      <c r="C2152" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:3">
+      <c r="A2153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2153" s="2">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+      <c r="C2153" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:3">
+      <c r="A2154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2154" s="2">
+        <f t="shared" si="42"/>
+        <v>31</v>
+      </c>
+      <c r="C2154" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:3">
+      <c r="A2155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2155" s="2">
+        <f t="shared" si="42"/>
+        <v>32</v>
+      </c>
+      <c r="C2155" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:3">
+      <c r="A2156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2156" s="2">
+        <f t="shared" si="42"/>
+        <v>33</v>
+      </c>
+      <c r="C2156" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:3">
+      <c r="A2157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2157" s="2">
+        <f t="shared" si="42"/>
+        <v>34</v>
+      </c>
+      <c r="C2157" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:3">
+      <c r="A2158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2158" s="2">
+        <f t="shared" si="42"/>
+        <v>35</v>
+      </c>
+      <c r="C2158" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:3">
+      <c r="A2159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2159" s="2">
+        <f t="shared" si="42"/>
+        <v>36</v>
+      </c>
+      <c r="C2159" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:3">
+      <c r="A2160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2160" s="2">
+        <f t="shared" si="42"/>
+        <v>37</v>
+      </c>
+      <c r="C2160" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:3">
+      <c r="A2161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2161" s="2">
+        <f t="shared" si="42"/>
+        <v>38</v>
+      </c>
+      <c r="C2161" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:3">
+      <c r="A2162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2162" s="2">
+        <f t="shared" si="42"/>
+        <v>39</v>
+      </c>
+      <c r="C2162" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:3">
+      <c r="A2163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2163" s="2">
+        <f t="shared" si="42"/>
+        <v>40</v>
+      </c>
+      <c r="C2163" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:3">
+      <c r="A2164" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2164" s="2">
+        <f t="shared" si="42"/>
+        <v>41</v>
+      </c>
+      <c r="C2164" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:3">
+      <c r="A2165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2165" s="2">
+        <f t="shared" si="42"/>
+        <v>42</v>
+      </c>
+      <c r="C2165" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:3">
+      <c r="A2166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2166" s="2">
+        <f t="shared" si="42"/>
+        <v>43</v>
+      </c>
+      <c r="C2166" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:3">
+      <c r="A2167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2167" s="2">
+        <f t="shared" si="42"/>
+        <v>44</v>
+      </c>
+      <c r="C2167" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:3">
+      <c r="A2168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2168" s="2">
+        <f t="shared" si="42"/>
+        <v>45</v>
+      </c>
+      <c r="C2168" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:3">
+      <c r="A2169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2169" s="2">
+        <f t="shared" si="42"/>
+        <v>46</v>
+      </c>
+      <c r="C2169" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:3">
+      <c r="A2170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2170" s="2">
+        <f t="shared" si="42"/>
+        <v>47</v>
+      </c>
+      <c r="C2170" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:3">
+      <c r="A2171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2171" s="2">
+        <f t="shared" si="42"/>
+        <v>48</v>
+      </c>
+      <c r="C2171" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:3">
+      <c r="A2172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2172" s="2">
+        <f t="shared" si="42"/>
+        <v>49</v>
+      </c>
+      <c r="C2172" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:3">
+      <c r="A2173" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2173" s="2">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="C2173" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:3">
+      <c r="A2174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2174" s="2">
+        <f t="shared" si="42"/>
+        <v>51</v>
+      </c>
+      <c r="C2174" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:3">
+      <c r="A2175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2175" s="2">
+        <f t="shared" si="42"/>
+        <v>52</v>
+      </c>
+      <c r="C2175" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:3">
+      <c r="A2176" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2176" s="2">
+        <f t="shared" si="42"/>
+        <v>53</v>
+      </c>
+      <c r="C2176" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:3">
+      <c r="A2177" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2177" s="2">
+        <f t="shared" si="42"/>
+        <v>54</v>
+      </c>
+      <c r="C2177" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:3">
+      <c r="A2178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2178" s="2">
+        <f t="shared" si="42"/>
+        <v>55</v>
+      </c>
+      <c r="C2178" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:3">
+      <c r="A2179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2179" s="2">
+        <f t="shared" si="42"/>
+        <v>56</v>
+      </c>
+      <c r="C2179" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:3">
+      <c r="A2180" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2180" s="2">
+        <f t="shared" si="42"/>
+        <v>57</v>
+      </c>
+      <c r="C2180" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:3">
+      <c r="A2181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2181" s="2">
+        <f t="shared" si="42"/>
+        <v>58</v>
+      </c>
+      <c r="C2181" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:3">
+      <c r="A2182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2182" s="2">
+        <f t="shared" si="42"/>
+        <v>59</v>
+      </c>
+      <c r="C2182" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:3">
+      <c r="A2183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2183" s="2">
+        <f t="shared" si="42"/>
+        <v>60</v>
+      </c>
+      <c r="C2183" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:3">
+      <c r="A2184" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2184" s="2">
+        <f t="shared" si="42"/>
+        <v>61</v>
+      </c>
+      <c r="C2184" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:3">
+      <c r="A2185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2185" s="2">
+        <f t="shared" si="42"/>
+        <v>62</v>
+      </c>
+      <c r="C2185" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:3">
+      <c r="A2186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2186" s="2">
+        <f t="shared" si="42"/>
+        <v>63</v>
+      </c>
+      <c r="C2186" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:3">
+      <c r="A2187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2187" s="2">
+        <f t="shared" si="42"/>
+        <v>64</v>
+      </c>
+      <c r="C2187" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:3">
+      <c r="A2188" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2188" s="2">
+        <f t="shared" si="42"/>
+        <v>65</v>
+      </c>
+      <c r="C2188" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:3">
+      <c r="A2189" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2189" s="2">
+        <f t="shared" ref="B2189:B2223" si="43">B2188+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2189" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:3">
+      <c r="A2190" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2190" s="2">
+        <f t="shared" si="43"/>
+        <v>67</v>
+      </c>
+      <c r="C2190" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:3">
+      <c r="A2191" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2191" s="2">
+        <f t="shared" si="43"/>
+        <v>68</v>
+      </c>
+      <c r="C2191" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:3">
+      <c r="A2192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2192" s="2">
+        <f t="shared" si="43"/>
+        <v>69</v>
+      </c>
+      <c r="C2192" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:3">
+      <c r="A2193" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2193" s="2">
+        <f t="shared" si="43"/>
+        <v>70</v>
+      </c>
+      <c r="C2193" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:3">
+      <c r="A2194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2194" s="2">
+        <f t="shared" si="43"/>
+        <v>71</v>
+      </c>
+      <c r="C2194" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:3">
+      <c r="A2195" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2195" s="2">
+        <f t="shared" si="43"/>
+        <v>72</v>
+      </c>
+      <c r="C2195" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:3">
+      <c r="A2196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2196" s="2">
+        <f t="shared" si="43"/>
+        <v>73</v>
+      </c>
+      <c r="C2196" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:3">
+      <c r="A2197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2197" s="2">
+        <f t="shared" si="43"/>
+        <v>74</v>
+      </c>
+      <c r="C2197" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:3">
+      <c r="A2198" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2198" s="2">
+        <f t="shared" si="43"/>
+        <v>75</v>
+      </c>
+      <c r="C2198" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:3">
+      <c r="A2199" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2199" s="2">
+        <f t="shared" si="43"/>
+        <v>76</v>
+      </c>
+      <c r="C2199" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:3">
+      <c r="A2200" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2200" s="2">
+        <f t="shared" si="43"/>
+        <v>77</v>
+      </c>
+      <c r="C2200" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:3">
+      <c r="A2201" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2201" s="2">
+        <f t="shared" si="43"/>
+        <v>78</v>
+      </c>
+      <c r="C2201" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:3">
+      <c r="A2202" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2202" s="2">
+        <f t="shared" si="43"/>
+        <v>79</v>
+      </c>
+      <c r="C2202" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:3">
+      <c r="A2203" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2203" s="2">
+        <f t="shared" si="43"/>
+        <v>80</v>
+      </c>
+      <c r="C2203" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:3">
+      <c r="A2204" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2204" s="2">
+        <f t="shared" si="43"/>
+        <v>81</v>
+      </c>
+      <c r="C2204" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:3">
+      <c r="A2205" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2205" s="2">
+        <f t="shared" si="43"/>
+        <v>82</v>
+      </c>
+      <c r="C2205" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:3">
+      <c r="A2206" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2206" s="2">
+        <f t="shared" si="43"/>
+        <v>83</v>
+      </c>
+      <c r="C2206" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:3">
+      <c r="A2207" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2207" s="2">
+        <f t="shared" si="43"/>
+        <v>84</v>
+      </c>
+      <c r="C2207" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:3">
+      <c r="A2208" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2208" s="2">
+        <f t="shared" si="43"/>
+        <v>85</v>
+      </c>
+      <c r="C2208" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:3">
+      <c r="A2209" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2209" s="2">
+        <f t="shared" si="43"/>
+        <v>86</v>
+      </c>
+      <c r="C2209" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:3">
+      <c r="A2210" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2210" s="2">
+        <f t="shared" si="43"/>
+        <v>87</v>
+      </c>
+      <c r="C2210" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:3">
+      <c r="A2211" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2211" s="2">
+        <f t="shared" si="43"/>
+        <v>88</v>
+      </c>
+      <c r="C2211" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:3">
+      <c r="A2212" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2212" s="2">
+        <f t="shared" si="43"/>
+        <v>89</v>
+      </c>
+      <c r="C2212" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:3">
+      <c r="A2213" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2213" s="2">
+        <f t="shared" si="43"/>
+        <v>90</v>
+      </c>
+      <c r="C2213" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:3">
+      <c r="A2214" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2214" s="2">
+        <f t="shared" si="43"/>
+        <v>91</v>
+      </c>
+      <c r="C2214" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:3">
+      <c r="A2215" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2215" s="2">
+        <f t="shared" si="43"/>
+        <v>92</v>
+      </c>
+      <c r="C2215" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:3">
+      <c r="A2216" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2216" s="2">
+        <f t="shared" si="43"/>
+        <v>93</v>
+      </c>
+      <c r="C2216" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:3">
+      <c r="A2217" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2217" s="2">
+        <f t="shared" si="43"/>
+        <v>94</v>
+      </c>
+      <c r="C2217" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:3">
+      <c r="A2218" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2218" s="2">
+        <f t="shared" si="43"/>
+        <v>95</v>
+      </c>
+      <c r="C2218" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:3">
+      <c r="A2219" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2219" s="2">
+        <f t="shared" si="43"/>
+        <v>96</v>
+      </c>
+      <c r="C2219" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:3">
+      <c r="A2220" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2220" s="2">
+        <f t="shared" si="43"/>
+        <v>97</v>
+      </c>
+      <c r="C2220" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:3">
+      <c r="A2221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2221" s="2">
+        <f t="shared" si="43"/>
+        <v>98</v>
+      </c>
+      <c r="C2221" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:3">
+      <c r="A2222" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2222" s="2">
+        <f t="shared" si="43"/>
+        <v>99</v>
+      </c>
+      <c r="C2222" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:3">
+      <c r="A2223" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2223" s="2">
+        <f t="shared" si="43"/>
+        <v>100</v>
+      </c>
+      <c r="C2223" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:3">
+      <c r="A2224" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2224" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2224" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:3">
+      <c r="A2225" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2225" s="2">
+        <f>B2224+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2225" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:3">
+      <c r="A2226" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2226" s="2">
+        <f t="shared" ref="B2226:B2289" si="44">B2225+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2226" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:3">
+      <c r="A2227" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2227" s="2">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="C2227" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:3">
+      <c r="A2228" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2228" s="2">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="C2228" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:3">
+      <c r="A2229" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2229" s="2">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="C2229" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:3">
+      <c r="A2230" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2230" s="2">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="C2230" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:3">
+      <c r="A2231" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2231" s="2">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="C2231" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:3">
+      <c r="A2232" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2232" s="2">
+        <f t="shared" si="44"/>
+        <v>8</v>
+      </c>
+      <c r="C2232" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:3">
+      <c r="A2233" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2233" s="2">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="C2233" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:3">
+      <c r="A2234" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2234" s="2">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="C2234" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:3">
+      <c r="A2235" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2235" s="2">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+      <c r="C2235" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:3">
+      <c r="A2236" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2236" s="2">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="C2236" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:3">
+      <c r="A2237" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2237" s="2">
+        <f t="shared" si="44"/>
+        <v>13</v>
+      </c>
+      <c r="C2237" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:3">
+      <c r="A2238" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2238" s="2">
+        <f t="shared" si="44"/>
+        <v>14</v>
+      </c>
+      <c r="C2238" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:3">
+      <c r="A2239" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2239" s="2">
+        <f t="shared" si="44"/>
+        <v>15</v>
+      </c>
+      <c r="C2239" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:3">
+      <c r="A2240" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2240" s="2">
+        <f t="shared" si="44"/>
+        <v>16</v>
+      </c>
+      <c r="C2240" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:3">
+      <c r="A2241" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2241" s="2">
+        <f t="shared" si="44"/>
+        <v>17</v>
+      </c>
+      <c r="C2241" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:3">
+      <c r="A2242" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2242" s="2">
+        <f t="shared" si="44"/>
+        <v>18</v>
+      </c>
+      <c r="C2242" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:3">
+      <c r="A2243" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2243" s="2">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="C2243" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:3">
+      <c r="A2244" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2244" s="2">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+      <c r="C2244" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:3">
+      <c r="A2245" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2245" s="2">
+        <f t="shared" si="44"/>
+        <v>21</v>
+      </c>
+      <c r="C2245" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:3">
+      <c r="A2246" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2246" s="2">
+        <f t="shared" si="44"/>
+        <v>22</v>
+      </c>
+      <c r="C2246" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:3">
+      <c r="A2247" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2247" s="2">
+        <f t="shared" si="44"/>
+        <v>23</v>
+      </c>
+      <c r="C2247" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:3">
+      <c r="A2248" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2248" s="2">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="C2248" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:3">
+      <c r="A2249" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2249" s="2">
+        <f t="shared" si="44"/>
+        <v>25</v>
+      </c>
+      <c r="C2249" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:3">
+      <c r="A2250" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2250" s="2">
+        <f t="shared" si="44"/>
+        <v>26</v>
+      </c>
+      <c r="C2250" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:3">
+      <c r="A2251" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2251" s="2">
+        <f t="shared" si="44"/>
+        <v>27</v>
+      </c>
+      <c r="C2251" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:3">
+      <c r="A2252" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2252" s="2">
+        <f t="shared" si="44"/>
+        <v>28</v>
+      </c>
+      <c r="C2252" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:3">
+      <c r="A2253" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2253" s="2">
+        <f t="shared" si="44"/>
+        <v>29</v>
+      </c>
+      <c r="C2253" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:3">
+      <c r="A2254" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2254" s="2">
+        <f t="shared" si="44"/>
+        <v>30</v>
+      </c>
+      <c r="C2254" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:3">
+      <c r="A2255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2255" s="2">
+        <f t="shared" si="44"/>
+        <v>31</v>
+      </c>
+      <c r="C2255" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:3">
+      <c r="A2256" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2256" s="2">
+        <f t="shared" si="44"/>
+        <v>32</v>
+      </c>
+      <c r="C2256" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:3">
+      <c r="A2257" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2257" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
+      </c>
+      <c r="C2257" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:3">
+      <c r="A2258" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2258" s="2">
+        <f t="shared" si="44"/>
+        <v>34</v>
+      </c>
+      <c r="C2258" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:3">
+      <c r="A2259" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2259" s="2">
+        <f t="shared" si="44"/>
+        <v>35</v>
+      </c>
+      <c r="C2259" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:3">
+      <c r="A2260" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2260" s="2">
+        <f t="shared" si="44"/>
+        <v>36</v>
+      </c>
+      <c r="C2260" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:3">
+      <c r="A2261" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2261" s="2">
+        <f t="shared" si="44"/>
+        <v>37</v>
+      </c>
+      <c r="C2261" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:3">
+      <c r="A2262" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2262" s="2">
+        <f t="shared" si="44"/>
+        <v>38</v>
+      </c>
+      <c r="C2262" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:3">
+      <c r="A2263" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2263" s="2">
+        <f t="shared" si="44"/>
+        <v>39</v>
+      </c>
+      <c r="C2263" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:3">
+      <c r="A2264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2264" s="2">
+        <f t="shared" si="44"/>
+        <v>40</v>
+      </c>
+      <c r="C2264" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:3">
+      <c r="A2265" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2265" s="2">
+        <f t="shared" si="44"/>
+        <v>41</v>
+      </c>
+      <c r="C2265" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:3">
+      <c r="A2266" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2266" s="2">
+        <f t="shared" si="44"/>
+        <v>42</v>
+      </c>
+      <c r="C2266" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:3">
+      <c r="A2267" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2267" s="2">
+        <f t="shared" si="44"/>
+        <v>43</v>
+      </c>
+      <c r="C2267" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:3">
+      <c r="A2268" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2268" s="2">
+        <f t="shared" si="44"/>
+        <v>44</v>
+      </c>
+      <c r="C2268" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:3">
+      <c r="A2269" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2269" s="2">
+        <f t="shared" si="44"/>
+        <v>45</v>
+      </c>
+      <c r="C2269" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:3">
+      <c r="A2270" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2270" s="2">
+        <f t="shared" si="44"/>
+        <v>46</v>
+      </c>
+      <c r="C2270" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:3">
+      <c r="A2271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2271" s="2">
+        <f t="shared" si="44"/>
+        <v>47</v>
+      </c>
+      <c r="C2271" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:3">
+      <c r="A2272" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2272" s="2">
+        <f t="shared" si="44"/>
+        <v>48</v>
+      </c>
+      <c r="C2272" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:3">
+      <c r="A2273" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2273" s="2">
+        <f t="shared" si="44"/>
+        <v>49</v>
+      </c>
+      <c r="C2273" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:3">
+      <c r="A2274" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2274" s="2">
+        <f t="shared" si="44"/>
+        <v>50</v>
+      </c>
+      <c r="C2274" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:3">
+      <c r="A2275" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2275" s="2">
+        <f t="shared" si="44"/>
+        <v>51</v>
+      </c>
+      <c r="C2275" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:3">
+      <c r="A2276" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2276" s="2">
+        <f t="shared" si="44"/>
+        <v>52</v>
+      </c>
+      <c r="C2276" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:3">
+      <c r="A2277" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2277" s="2">
+        <f t="shared" si="44"/>
+        <v>53</v>
+      </c>
+      <c r="C2277" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:3">
+      <c r="A2278" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2278" s="2">
+        <f t="shared" si="44"/>
+        <v>54</v>
+      </c>
+      <c r="C2278" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:3">
+      <c r="A2279" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2279" s="2">
+        <f t="shared" si="44"/>
+        <v>55</v>
+      </c>
+      <c r="C2279" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:3">
+      <c r="A2280" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2280" s="2">
+        <f t="shared" si="44"/>
+        <v>56</v>
+      </c>
+      <c r="C2280" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:3">
+      <c r="A2281" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2281" s="2">
+        <f t="shared" si="44"/>
+        <v>57</v>
+      </c>
+      <c r="C2281" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:3">
+      <c r="A2282" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2282" s="2">
+        <f t="shared" si="44"/>
+        <v>58</v>
+      </c>
+      <c r="C2282" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3">
+      <c r="A2283" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2283" s="2">
+        <f t="shared" si="44"/>
+        <v>59</v>
+      </c>
+      <c r="C2283" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:3">
+      <c r="A2284" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2284" s="2">
+        <f t="shared" si="44"/>
+        <v>60</v>
+      </c>
+      <c r="C2284" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3">
+      <c r="A2285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2285" s="2">
+        <f t="shared" si="44"/>
+        <v>61</v>
+      </c>
+      <c r="C2285" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3">
+      <c r="A2286" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2286" s="2">
+        <f t="shared" si="44"/>
+        <v>62</v>
+      </c>
+      <c r="C2286" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3">
+      <c r="A2287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2287" s="2">
+        <f t="shared" si="44"/>
+        <v>63</v>
+      </c>
+      <c r="C2287" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3">
+      <c r="A2288" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2288" s="2">
+        <f t="shared" si="44"/>
+        <v>64</v>
+      </c>
+      <c r="C2288" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:3">
+      <c r="A2289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2289" s="2">
+        <f t="shared" si="44"/>
+        <v>65</v>
+      </c>
+      <c r="C2289" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3">
+      <c r="A2290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2290" s="2">
+        <f t="shared" ref="B2290:B2324" si="45">B2289+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2290" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:3">
+      <c r="A2291" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2291" s="2">
+        <f t="shared" si="45"/>
+        <v>67</v>
+      </c>
+      <c r="C2291" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3">
+      <c r="A2292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2292" s="2">
+        <f t="shared" si="45"/>
+        <v>68</v>
+      </c>
+      <c r="C2292" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:3">
+      <c r="A2293" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2293" s="2">
+        <f t="shared" si="45"/>
+        <v>69</v>
+      </c>
+      <c r="C2293" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:3">
+      <c r="A2294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2294" s="2">
+        <f t="shared" si="45"/>
+        <v>70</v>
+      </c>
+      <c r="C2294" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:3">
+      <c r="A2295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2295" s="2">
+        <f t="shared" si="45"/>
+        <v>71</v>
+      </c>
+      <c r="C2295" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:3">
+      <c r="A2296" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2296" s="2">
+        <f t="shared" si="45"/>
+        <v>72</v>
+      </c>
+      <c r="C2296" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:3">
+      <c r="A2297" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2297" s="2">
+        <f t="shared" si="45"/>
+        <v>73</v>
+      </c>
+      <c r="C2297" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:3">
+      <c r="A2298" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2298" s="2">
+        <f t="shared" si="45"/>
+        <v>74</v>
+      </c>
+      <c r="C2298" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:3">
+      <c r="A2299" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2299" s="2">
+        <f t="shared" si="45"/>
+        <v>75</v>
+      </c>
+      <c r="C2299" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:3">
+      <c r="A2300" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2300" s="2">
+        <f t="shared" si="45"/>
+        <v>76</v>
+      </c>
+      <c r="C2300" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:3">
+      <c r="A2301" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2301" s="2">
+        <f t="shared" si="45"/>
+        <v>77</v>
+      </c>
+      <c r="C2301" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:3">
+      <c r="A2302" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2302" s="2">
+        <f t="shared" si="45"/>
+        <v>78</v>
+      </c>
+      <c r="C2302" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:3">
+      <c r="A2303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2303" s="2">
+        <f t="shared" si="45"/>
+        <v>79</v>
+      </c>
+      <c r="C2303" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:3">
+      <c r="A2304" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2304" s="2">
+        <f t="shared" si="45"/>
+        <v>80</v>
+      </c>
+      <c r="C2304" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:3">
+      <c r="A2305" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2305" s="2">
+        <f t="shared" si="45"/>
+        <v>81</v>
+      </c>
+      <c r="C2305" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:3">
+      <c r="A2306" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2306" s="2">
+        <f t="shared" si="45"/>
+        <v>82</v>
+      </c>
+      <c r="C2306" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:3">
+      <c r="A2307" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2307" s="2">
+        <f t="shared" si="45"/>
+        <v>83</v>
+      </c>
+      <c r="C2307" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:3">
+      <c r="A2308" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2308" s="2">
+        <f t="shared" si="45"/>
+        <v>84</v>
+      </c>
+      <c r="C2308" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:3">
+      <c r="A2309" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2309" s="2">
+        <f t="shared" si="45"/>
+        <v>85</v>
+      </c>
+      <c r="C2309" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:3">
+      <c r="A2310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2310" s="2">
+        <f t="shared" si="45"/>
+        <v>86</v>
+      </c>
+      <c r="C2310" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:3">
+      <c r="A2311" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2311" s="2">
+        <f t="shared" si="45"/>
+        <v>87</v>
+      </c>
+      <c r="C2311" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:3">
+      <c r="A2312" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2312" s="2">
+        <f t="shared" si="45"/>
+        <v>88</v>
+      </c>
+      <c r="C2312" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:3">
+      <c r="A2313" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2313" s="2">
+        <f t="shared" si="45"/>
+        <v>89</v>
+      </c>
+      <c r="C2313" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:3">
+      <c r="A2314" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2314" s="2">
+        <f t="shared" si="45"/>
+        <v>90</v>
+      </c>
+      <c r="C2314" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:3">
+      <c r="A2315" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2315" s="2">
+        <f t="shared" si="45"/>
+        <v>91</v>
+      </c>
+      <c r="C2315" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:3">
+      <c r="A2316" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2316" s="2">
+        <f t="shared" si="45"/>
+        <v>92</v>
+      </c>
+      <c r="C2316" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:3">
+      <c r="A2317" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2317" s="2">
+        <f t="shared" si="45"/>
+        <v>93</v>
+      </c>
+      <c r="C2317" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:3">
+      <c r="A2318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2318" s="2">
+        <f t="shared" si="45"/>
+        <v>94</v>
+      </c>
+      <c r="C2318" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:3">
+      <c r="A2319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2319" s="2">
+        <f t="shared" si="45"/>
+        <v>95</v>
+      </c>
+      <c r="C2319" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:3">
+      <c r="A2320" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2320" s="2">
+        <f t="shared" si="45"/>
+        <v>96</v>
+      </c>
+      <c r="C2320" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:3">
+      <c r="A2321" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2321" s="2">
+        <f t="shared" si="45"/>
+        <v>97</v>
+      </c>
+      <c r="C2321" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:3">
+      <c r="A2322" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2322" s="2">
+        <f t="shared" si="45"/>
+        <v>98</v>
+      </c>
+      <c r="C2322" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:3">
+      <c r="A2323" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2323" s="2">
+        <f t="shared" si="45"/>
+        <v>99</v>
+      </c>
+      <c r="C2323" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:3">
+      <c r="A2324" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2324" s="2">
+        <f t="shared" si="45"/>
+        <v>100</v>
+      </c>
+      <c r="C2324" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:3">
+      <c r="A2325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2325" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2325" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:3">
+      <c r="A2326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2326" s="2">
+        <f>B2325+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2326" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:3">
+      <c r="A2327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2327" s="2">
+        <f t="shared" ref="B2327:B2390" si="46">B2326+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2327" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:3">
+      <c r="A2328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2328" s="2">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="C2328" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:3">
+      <c r="A2329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2329" s="2">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="C2329" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:3">
+      <c r="A2330" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2330" s="2">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="C2330" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:3">
+      <c r="A2331" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2331" s="2">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="C2331" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:3">
+      <c r="A2332" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2332" s="2">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="C2332" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:3">
+      <c r="A2333" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2333" s="2">
+        <f t="shared" si="46"/>
+        <v>8</v>
+      </c>
+      <c r="C2333" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:3">
+      <c r="A2334" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2334" s="2">
+        <f t="shared" si="46"/>
+        <v>9</v>
+      </c>
+      <c r="C2334" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:3">
+      <c r="A2335" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2335" s="2">
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="C2335" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:3">
+      <c r="A2336" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2336" s="2">
+        <f t="shared" si="46"/>
+        <v>11</v>
+      </c>
+      <c r="C2336" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:3">
+      <c r="A2337" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2337" s="2">
+        <f t="shared" si="46"/>
+        <v>12</v>
+      </c>
+      <c r="C2337" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:3">
+      <c r="A2338" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2338" s="2">
+        <f t="shared" si="46"/>
+        <v>13</v>
+      </c>
+      <c r="C2338" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:3">
+      <c r="A2339" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2339" s="2">
+        <f t="shared" si="46"/>
+        <v>14</v>
+      </c>
+      <c r="C2339" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:3">
+      <c r="A2340" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2340" s="2">
+        <f t="shared" si="46"/>
+        <v>15</v>
+      </c>
+      <c r="C2340" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:3">
+      <c r="A2341" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2341" s="2">
+        <f t="shared" si="46"/>
+        <v>16</v>
+      </c>
+      <c r="C2341" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:3">
+      <c r="A2342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2342" s="2">
+        <f t="shared" si="46"/>
+        <v>17</v>
+      </c>
+      <c r="C2342" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:3">
+      <c r="A2343" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2343" s="2">
+        <f t="shared" si="46"/>
+        <v>18</v>
+      </c>
+      <c r="C2343" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:3">
+      <c r="A2344" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2344" s="2">
+        <f t="shared" si="46"/>
+        <v>19</v>
+      </c>
+      <c r="C2344" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:3">
+      <c r="A2345" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2345" s="2">
+        <f t="shared" si="46"/>
+        <v>20</v>
+      </c>
+      <c r="C2345" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:3">
+      <c r="A2346" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2346" s="2">
+        <f t="shared" si="46"/>
+        <v>21</v>
+      </c>
+      <c r="C2346" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:3">
+      <c r="A2347" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2347" s="2">
+        <f t="shared" si="46"/>
+        <v>22</v>
+      </c>
+      <c r="C2347" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:3">
+      <c r="A2348" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2348" s="2">
+        <f t="shared" si="46"/>
+        <v>23</v>
+      </c>
+      <c r="C2348" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:3">
+      <c r="A2349" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2349" s="2">
+        <f t="shared" si="46"/>
+        <v>24</v>
+      </c>
+      <c r="C2349" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:3">
+      <c r="A2350" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2350" s="2">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="C2350" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:3">
+      <c r="A2351" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2351" s="2">
+        <f t="shared" si="46"/>
+        <v>26</v>
+      </c>
+      <c r="C2351" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:3">
+      <c r="A2352" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2352" s="2">
+        <f t="shared" si="46"/>
+        <v>27</v>
+      </c>
+      <c r="C2352" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:3">
+      <c r="A2353" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2353" s="2">
+        <f t="shared" si="46"/>
+        <v>28</v>
+      </c>
+      <c r="C2353" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:3">
+      <c r="A2354" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2354" s="2">
+        <f t="shared" si="46"/>
+        <v>29</v>
+      </c>
+      <c r="C2354" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:3">
+      <c r="A2355" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2355" s="2">
+        <f t="shared" si="46"/>
+        <v>30</v>
+      </c>
+      <c r="C2355" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:3">
+      <c r="A2356" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2356" s="2">
+        <f t="shared" si="46"/>
+        <v>31</v>
+      </c>
+      <c r="C2356" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:3">
+      <c r="A2357" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2357" s="2">
+        <f t="shared" si="46"/>
+        <v>32</v>
+      </c>
+      <c r="C2357" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:3">
+      <c r="A2358" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2358" s="2">
+        <f t="shared" si="46"/>
+        <v>33</v>
+      </c>
+      <c r="C2358" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:3">
+      <c r="A2359" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2359" s="2">
+        <f t="shared" si="46"/>
+        <v>34</v>
+      </c>
+      <c r="C2359" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:3">
+      <c r="A2360" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2360" s="2">
+        <f t="shared" si="46"/>
+        <v>35</v>
+      </c>
+      <c r="C2360" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:3">
+      <c r="A2361" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2361" s="2">
+        <f t="shared" si="46"/>
+        <v>36</v>
+      </c>
+      <c r="C2361" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:3">
+      <c r="A2362" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2362" s="2">
+        <f t="shared" si="46"/>
+        <v>37</v>
+      </c>
+      <c r="C2362" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:3">
+      <c r="A2363" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2363" s="2">
+        <f t="shared" si="46"/>
+        <v>38</v>
+      </c>
+      <c r="C2363" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:3">
+      <c r="A2364" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2364" s="2">
+        <f t="shared" si="46"/>
+        <v>39</v>
+      </c>
+      <c r="C2364" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:3">
+      <c r="A2365" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2365" s="2">
+        <f t="shared" si="46"/>
+        <v>40</v>
+      </c>
+      <c r="C2365" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:3">
+      <c r="A2366" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2366" s="2">
+        <f t="shared" si="46"/>
+        <v>41</v>
+      </c>
+      <c r="C2366" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:3">
+      <c r="A2367" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2367" s="2">
+        <f t="shared" si="46"/>
+        <v>42</v>
+      </c>
+      <c r="C2367" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:3">
+      <c r="A2368" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2368" s="2">
+        <f t="shared" si="46"/>
+        <v>43</v>
+      </c>
+      <c r="C2368" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:3">
+      <c r="A2369" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2369" s="2">
+        <f t="shared" si="46"/>
+        <v>44</v>
+      </c>
+      <c r="C2369" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:3">
+      <c r="A2370" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2370" s="2">
+        <f t="shared" si="46"/>
+        <v>45</v>
+      </c>
+      <c r="C2370" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:3">
+      <c r="A2371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2371" s="2">
+        <f t="shared" si="46"/>
+        <v>46</v>
+      </c>
+      <c r="C2371" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:3">
+      <c r="A2372" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2372" s="2">
+        <f t="shared" si="46"/>
+        <v>47</v>
+      </c>
+      <c r="C2372" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:3">
+      <c r="A2373" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2373" s="2">
+        <f t="shared" si="46"/>
+        <v>48</v>
+      </c>
+      <c r="C2373" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:3">
+      <c r="A2374" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2374" s="2">
+        <f t="shared" si="46"/>
+        <v>49</v>
+      </c>
+      <c r="C2374" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:3">
+      <c r="A2375" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2375" s="2">
+        <f t="shared" si="46"/>
+        <v>50</v>
+      </c>
+      <c r="C2375" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:3">
+      <c r="A2376" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2376" s="2">
+        <f t="shared" si="46"/>
+        <v>51</v>
+      </c>
+      <c r="C2376" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:3">
+      <c r="A2377" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2377" s="2">
+        <f t="shared" si="46"/>
+        <v>52</v>
+      </c>
+      <c r="C2377" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:3">
+      <c r="A2378" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2378" s="2">
+        <f t="shared" si="46"/>
+        <v>53</v>
+      </c>
+      <c r="C2378" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:3">
+      <c r="A2379" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2379" s="2">
+        <f t="shared" si="46"/>
+        <v>54</v>
+      </c>
+      <c r="C2379" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:3">
+      <c r="A2380" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2380" s="2">
+        <f t="shared" si="46"/>
+        <v>55</v>
+      </c>
+      <c r="C2380" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:3">
+      <c r="A2381" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2381" s="2">
+        <f t="shared" si="46"/>
+        <v>56</v>
+      </c>
+      <c r="C2381" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:3">
+      <c r="A2382" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2382" s="2">
+        <f t="shared" si="46"/>
+        <v>57</v>
+      </c>
+      <c r="C2382" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:3">
+      <c r="A2383" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2383" s="2">
+        <f t="shared" si="46"/>
+        <v>58</v>
+      </c>
+      <c r="C2383" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:3">
+      <c r="A2384" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2384" s="2">
+        <f t="shared" si="46"/>
+        <v>59</v>
+      </c>
+      <c r="C2384" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:3">
+      <c r="A2385" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2385" s="2">
+        <f t="shared" si="46"/>
+        <v>60</v>
+      </c>
+      <c r="C2385" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:3">
+      <c r="A2386" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2386" s="2">
+        <f t="shared" si="46"/>
+        <v>61</v>
+      </c>
+      <c r="C2386" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:3">
+      <c r="A2387" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2387" s="2">
+        <f t="shared" si="46"/>
+        <v>62</v>
+      </c>
+      <c r="C2387" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:3">
+      <c r="A2388" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2388" s="2">
+        <f t="shared" si="46"/>
+        <v>63</v>
+      </c>
+      <c r="C2388" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:3">
+      <c r="A2389" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2389" s="2">
+        <f t="shared" si="46"/>
+        <v>64</v>
+      </c>
+      <c r="C2389" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:3">
+      <c r="A2390" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2390" s="2">
+        <f t="shared" si="46"/>
+        <v>65</v>
+      </c>
+      <c r="C2390" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:3">
+      <c r="A2391" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2391" s="2">
+        <f t="shared" ref="B2391:B2425" si="47">B2390+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2391" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:3">
+      <c r="A2392" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2392" s="2">
+        <f t="shared" si="47"/>
+        <v>67</v>
+      </c>
+      <c r="C2392" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:3">
+      <c r="A2393" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2393" s="2">
+        <f t="shared" si="47"/>
+        <v>68</v>
+      </c>
+      <c r="C2393" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:3">
+      <c r="A2394" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2394" s="2">
+        <f t="shared" si="47"/>
+        <v>69</v>
+      </c>
+      <c r="C2394" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:3">
+      <c r="A2395" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2395" s="2">
+        <f t="shared" si="47"/>
+        <v>70</v>
+      </c>
+      <c r="C2395" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:3">
+      <c r="A2396" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2396" s="2">
+        <f t="shared" si="47"/>
+        <v>71</v>
+      </c>
+      <c r="C2396" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:3">
+      <c r="A2397" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2397" s="2">
+        <f t="shared" si="47"/>
+        <v>72</v>
+      </c>
+      <c r="C2397" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:3">
+      <c r="A2398" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2398" s="2">
+        <f t="shared" si="47"/>
+        <v>73</v>
+      </c>
+      <c r="C2398" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:3">
+      <c r="A2399" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2399" s="2">
+        <f t="shared" si="47"/>
+        <v>74</v>
+      </c>
+      <c r="C2399" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:3">
+      <c r="A2400" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2400" s="2">
+        <f t="shared" si="47"/>
+        <v>75</v>
+      </c>
+      <c r="C2400" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:3">
+      <c r="A2401" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2401" s="2">
+        <f t="shared" si="47"/>
+        <v>76</v>
+      </c>
+      <c r="C2401" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:3">
+      <c r="A2402" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2402" s="2">
+        <f t="shared" si="47"/>
+        <v>77</v>
+      </c>
+      <c r="C2402" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:3">
+      <c r="A2403" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2403" s="2">
+        <f t="shared" si="47"/>
+        <v>78</v>
+      </c>
+      <c r="C2403" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:3">
+      <c r="A2404" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2404" s="2">
+        <f t="shared" si="47"/>
+        <v>79</v>
+      </c>
+      <c r="C2404" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:3">
+      <c r="A2405" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2405" s="2">
+        <f t="shared" si="47"/>
+        <v>80</v>
+      </c>
+      <c r="C2405" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:3">
+      <c r="A2406" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2406" s="2">
+        <f t="shared" si="47"/>
+        <v>81</v>
+      </c>
+      <c r="C2406" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:3">
+      <c r="A2407" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2407" s="2">
+        <f t="shared" si="47"/>
+        <v>82</v>
+      </c>
+      <c r="C2407" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:3">
+      <c r="A2408" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2408" s="2">
+        <f t="shared" si="47"/>
+        <v>83</v>
+      </c>
+      <c r="C2408" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:3">
+      <c r="A2409" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2409" s="2">
+        <f t="shared" si="47"/>
+        <v>84</v>
+      </c>
+      <c r="C2409" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:3">
+      <c r="A2410" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2410" s="2">
+        <f t="shared" si="47"/>
+        <v>85</v>
+      </c>
+      <c r="C2410" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:3">
+      <c r="A2411" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2411" s="2">
+        <f t="shared" si="47"/>
+        <v>86</v>
+      </c>
+      <c r="C2411" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:3">
+      <c r="A2412" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2412" s="2">
+        <f t="shared" si="47"/>
+        <v>87</v>
+      </c>
+      <c r="C2412" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:3">
+      <c r="A2413" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2413" s="2">
+        <f t="shared" si="47"/>
+        <v>88</v>
+      </c>
+      <c r="C2413" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:3">
+      <c r="A2414" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2414" s="2">
+        <f t="shared" si="47"/>
+        <v>89</v>
+      </c>
+      <c r="C2414" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:3">
+      <c r="A2415" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2415" s="2">
+        <f t="shared" si="47"/>
+        <v>90</v>
+      </c>
+      <c r="C2415" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:3">
+      <c r="A2416" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2416" s="2">
+        <f t="shared" si="47"/>
+        <v>91</v>
+      </c>
+      <c r="C2416" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:3">
+      <c r="A2417" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2417" s="2">
+        <f t="shared" si="47"/>
+        <v>92</v>
+      </c>
+      <c r="C2417" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:3">
+      <c r="A2418" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2418" s="2">
+        <f t="shared" si="47"/>
+        <v>93</v>
+      </c>
+      <c r="C2418" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:3">
+      <c r="A2419" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2419" s="2">
+        <f t="shared" si="47"/>
+        <v>94</v>
+      </c>
+      <c r="C2419" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:3">
+      <c r="A2420" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2420" s="2">
+        <f t="shared" si="47"/>
+        <v>95</v>
+      </c>
+      <c r="C2420" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:3">
+      <c r="A2421" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2421" s="2">
+        <f t="shared" si="47"/>
+        <v>96</v>
+      </c>
+      <c r="C2421" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:3">
+      <c r="A2422" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2422" s="2">
+        <f t="shared" si="47"/>
+        <v>97</v>
+      </c>
+      <c r="C2422" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:3">
+      <c r="A2423" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2423" s="2">
+        <f t="shared" si="47"/>
+        <v>98</v>
+      </c>
+      <c r="C2423" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:3">
+      <c r="A2424" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2424" s="2">
+        <f t="shared" si="47"/>
+        <v>99</v>
+      </c>
+      <c r="C2424" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:3">
+      <c r="A2425" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2425" s="2">
+        <f t="shared" si="47"/>
+        <v>100</v>
+      </c>
+      <c r="C2425" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:3">
+      <c r="A2426" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2426" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2426" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:3">
+      <c r="A2427" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2427" s="2">
+        <f>B2426+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2427" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:3">
+      <c r="A2428" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2428" s="2">
+        <f t="shared" ref="B2428:B2491" si="48">B2427+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2428" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:3">
+      <c r="A2429" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2429" s="2">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="C2429" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:3">
+      <c r="A2430" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2430" s="2">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="C2430" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:3">
+      <c r="A2431" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2431" s="2">
+        <f t="shared" si="48"/>
+        <v>5</v>
+      </c>
+      <c r="C2431" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:3">
+      <c r="A2432" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2432" s="2">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="C2432" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:3">
+      <c r="A2433" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2433" s="2">
+        <f t="shared" si="48"/>
+        <v>7</v>
+      </c>
+      <c r="C2433" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:3">
+      <c r="A2434" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2434" s="2">
+        <f t="shared" si="48"/>
+        <v>8</v>
+      </c>
+      <c r="C2434" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:3">
+      <c r="A2435" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2435" s="2">
+        <f t="shared" si="48"/>
+        <v>9</v>
+      </c>
+      <c r="C2435" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:3">
+      <c r="A2436" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2436" s="2">
+        <f t="shared" si="48"/>
+        <v>10</v>
+      </c>
+      <c r="C2436" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:3">
+      <c r="A2437" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2437" s="2">
+        <f t="shared" si="48"/>
+        <v>11</v>
+      </c>
+      <c r="C2437" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:3">
+      <c r="A2438" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2438" s="2">
+        <f t="shared" si="48"/>
+        <v>12</v>
+      </c>
+      <c r="C2438" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:3">
+      <c r="A2439" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2439" s="2">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="C2439" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:3">
+      <c r="A2440" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2440" s="2">
+        <f t="shared" si="48"/>
+        <v>14</v>
+      </c>
+      <c r="C2440" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:3">
+      <c r="A2441" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2441" s="2">
+        <f t="shared" si="48"/>
+        <v>15</v>
+      </c>
+      <c r="C2441" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:3">
+      <c r="A2442" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2442" s="2">
+        <f t="shared" si="48"/>
+        <v>16</v>
+      </c>
+      <c r="C2442" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:3">
+      <c r="A2443" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2443" s="2">
+        <f t="shared" si="48"/>
+        <v>17</v>
+      </c>
+      <c r="C2443" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:3">
+      <c r="A2444" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2444" s="2">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="C2444" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:3">
+      <c r="A2445" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2445" s="2">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="C2445" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:3">
+      <c r="A2446" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2446" s="2">
+        <f t="shared" si="48"/>
+        <v>20</v>
+      </c>
+      <c r="C2446" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:3">
+      <c r="A2447" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2447" s="2">
+        <f t="shared" si="48"/>
+        <v>21</v>
+      </c>
+      <c r="C2447" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:3">
+      <c r="A2448" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2448" s="2">
+        <f t="shared" si="48"/>
+        <v>22</v>
+      </c>
+      <c r="C2448" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:3">
+      <c r="A2449" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2449" s="2">
+        <f t="shared" si="48"/>
+        <v>23</v>
+      </c>
+      <c r="C2449" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:3">
+      <c r="A2450" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2450" s="2">
+        <f t="shared" si="48"/>
+        <v>24</v>
+      </c>
+      <c r="C2450" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:3">
+      <c r="A2451" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2451" s="2">
+        <f t="shared" si="48"/>
+        <v>25</v>
+      </c>
+      <c r="C2451" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:3">
+      <c r="A2452" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2452" s="2">
+        <f t="shared" si="48"/>
+        <v>26</v>
+      </c>
+      <c r="C2452" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:3">
+      <c r="A2453" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2453" s="2">
+        <f t="shared" si="48"/>
+        <v>27</v>
+      </c>
+      <c r="C2453" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:3">
+      <c r="A2454" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2454" s="2">
+        <f t="shared" si="48"/>
+        <v>28</v>
+      </c>
+      <c r="C2454" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:3">
+      <c r="A2455" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2455" s="2">
+        <f t="shared" si="48"/>
+        <v>29</v>
+      </c>
+      <c r="C2455" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:3">
+      <c r="A2456" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2456" s="2">
+        <f t="shared" si="48"/>
+        <v>30</v>
+      </c>
+      <c r="C2456" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:3">
+      <c r="A2457" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2457" s="2">
+        <f t="shared" si="48"/>
+        <v>31</v>
+      </c>
+      <c r="C2457" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:3">
+      <c r="A2458" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2458" s="2">
+        <f t="shared" si="48"/>
+        <v>32</v>
+      </c>
+      <c r="C2458" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:3">
+      <c r="A2459" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2459" s="2">
+        <f t="shared" si="48"/>
+        <v>33</v>
+      </c>
+      <c r="C2459" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:3">
+      <c r="A2460" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2460" s="2">
+        <f t="shared" si="48"/>
+        <v>34</v>
+      </c>
+      <c r="C2460" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:3">
+      <c r="A2461" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2461" s="2">
+        <f t="shared" si="48"/>
+        <v>35</v>
+      </c>
+      <c r="C2461" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:3">
+      <c r="A2462" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2462" s="2">
+        <f t="shared" si="48"/>
+        <v>36</v>
+      </c>
+      <c r="C2462" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:3">
+      <c r="A2463" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2463" s="2">
+        <f t="shared" si="48"/>
+        <v>37</v>
+      </c>
+      <c r="C2463" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:3">
+      <c r="A2464" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2464" s="2">
+        <f t="shared" si="48"/>
+        <v>38</v>
+      </c>
+      <c r="C2464" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:3">
+      <c r="A2465" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2465" s="2">
+        <f t="shared" si="48"/>
+        <v>39</v>
+      </c>
+      <c r="C2465" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:3">
+      <c r="A2466" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2466" s="2">
+        <f t="shared" si="48"/>
+        <v>40</v>
+      </c>
+      <c r="C2466" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:3">
+      <c r="A2467" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2467" s="2">
+        <f t="shared" si="48"/>
+        <v>41</v>
+      </c>
+      <c r="C2467" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:3">
+      <c r="A2468" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2468" s="2">
+        <f t="shared" si="48"/>
+        <v>42</v>
+      </c>
+      <c r="C2468" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:3">
+      <c r="A2469" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2469" s="2">
+        <f t="shared" si="48"/>
+        <v>43</v>
+      </c>
+      <c r="C2469" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:3">
+      <c r="A2470" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2470" s="2">
+        <f t="shared" si="48"/>
+        <v>44</v>
+      </c>
+      <c r="C2470" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:3">
+      <c r="A2471" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2471" s="2">
+        <f t="shared" si="48"/>
+        <v>45</v>
+      </c>
+      <c r="C2471" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:3">
+      <c r="A2472" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2472" s="2">
+        <f t="shared" si="48"/>
+        <v>46</v>
+      </c>
+      <c r="C2472" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:3">
+      <c r="A2473" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2473" s="2">
+        <f t="shared" si="48"/>
+        <v>47</v>
+      </c>
+      <c r="C2473" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:3">
+      <c r="A2474" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2474" s="2">
+        <f t="shared" si="48"/>
+        <v>48</v>
+      </c>
+      <c r="C2474" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:3">
+      <c r="A2475" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2475" s="2">
+        <f t="shared" si="48"/>
+        <v>49</v>
+      </c>
+      <c r="C2475" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:3">
+      <c r="A2476" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2476" s="2">
+        <f t="shared" si="48"/>
+        <v>50</v>
+      </c>
+      <c r="C2476" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:3">
+      <c r="A2477" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2477" s="2">
+        <f t="shared" si="48"/>
+        <v>51</v>
+      </c>
+      <c r="C2477" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:3">
+      <c r="A2478" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2478" s="2">
+        <f t="shared" si="48"/>
+        <v>52</v>
+      </c>
+      <c r="C2478" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:3">
+      <c r="A2479" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2479" s="2">
+        <f t="shared" si="48"/>
+        <v>53</v>
+      </c>
+      <c r="C2479" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:3">
+      <c r="A2480" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2480" s="2">
+        <f t="shared" si="48"/>
+        <v>54</v>
+      </c>
+      <c r="C2480" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:3">
+      <c r="A2481" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2481" s="2">
+        <f t="shared" si="48"/>
+        <v>55</v>
+      </c>
+      <c r="C2481" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:3">
+      <c r="A2482" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2482" s="2">
+        <f t="shared" si="48"/>
+        <v>56</v>
+      </c>
+      <c r="C2482" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:3">
+      <c r="A2483" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2483" s="2">
+        <f t="shared" si="48"/>
+        <v>57</v>
+      </c>
+      <c r="C2483" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:3">
+      <c r="A2484" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2484" s="2">
+        <f t="shared" si="48"/>
+        <v>58</v>
+      </c>
+      <c r="C2484" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:3">
+      <c r="A2485" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2485" s="2">
+        <f t="shared" si="48"/>
+        <v>59</v>
+      </c>
+      <c r="C2485" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:3">
+      <c r="A2486" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2486" s="2">
+        <f t="shared" si="48"/>
+        <v>60</v>
+      </c>
+      <c r="C2486" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:3">
+      <c r="A2487" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2487" s="2">
+        <f t="shared" si="48"/>
+        <v>61</v>
+      </c>
+      <c r="C2487" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:3">
+      <c r="A2488" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2488" s="2">
+        <f t="shared" si="48"/>
+        <v>62</v>
+      </c>
+      <c r="C2488" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:3">
+      <c r="A2489" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2489" s="2">
+        <f t="shared" si="48"/>
+        <v>63</v>
+      </c>
+      <c r="C2489" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:3">
+      <c r="A2490" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2490" s="2">
+        <f t="shared" si="48"/>
+        <v>64</v>
+      </c>
+      <c r="C2490" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:3">
+      <c r="A2491" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2491" s="2">
+        <f t="shared" si="48"/>
+        <v>65</v>
+      </c>
+      <c r="C2491" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:3">
+      <c r="A2492" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2492" s="2">
+        <f t="shared" ref="B2492:B2526" si="49">B2491+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2492" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:3">
+      <c r="A2493" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2493" s="2">
+        <f t="shared" si="49"/>
+        <v>67</v>
+      </c>
+      <c r="C2493" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:3">
+      <c r="A2494" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2494" s="2">
+        <f t="shared" si="49"/>
+        <v>68</v>
+      </c>
+      <c r="C2494" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:3">
+      <c r="A2495" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2495" s="2">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="C2495" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:3">
+      <c r="A2496" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2496" s="2">
+        <f t="shared" si="49"/>
+        <v>70</v>
+      </c>
+      <c r="C2496" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:3">
+      <c r="A2497" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2497" s="2">
+        <f t="shared" si="49"/>
+        <v>71</v>
+      </c>
+      <c r="C2497" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:3">
+      <c r="A2498" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2498" s="2">
+        <f t="shared" si="49"/>
+        <v>72</v>
+      </c>
+      <c r="C2498" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:3">
+      <c r="A2499" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2499" s="2">
+        <f t="shared" si="49"/>
+        <v>73</v>
+      </c>
+      <c r="C2499" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:3">
+      <c r="A2500" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2500" s="2">
+        <f t="shared" si="49"/>
+        <v>74</v>
+      </c>
+      <c r="C2500" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:3">
+      <c r="A2501" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2501" s="2">
+        <f t="shared" si="49"/>
+        <v>75</v>
+      </c>
+      <c r="C2501" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:3">
+      <c r="A2502" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2502" s="2">
+        <f t="shared" si="49"/>
+        <v>76</v>
+      </c>
+      <c r="C2502" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:3">
+      <c r="A2503" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2503" s="2">
+        <f t="shared" si="49"/>
+        <v>77</v>
+      </c>
+      <c r="C2503" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:3">
+      <c r="A2504" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2504" s="2">
+        <f t="shared" si="49"/>
+        <v>78</v>
+      </c>
+      <c r="C2504" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:3">
+      <c r="A2505" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2505" s="2">
+        <f t="shared" si="49"/>
+        <v>79</v>
+      </c>
+      <c r="C2505" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:3">
+      <c r="A2506" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2506" s="2">
+        <f t="shared" si="49"/>
+        <v>80</v>
+      </c>
+      <c r="C2506" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:3">
+      <c r="A2507" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2507" s="2">
+        <f t="shared" si="49"/>
+        <v>81</v>
+      </c>
+      <c r="C2507" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:3">
+      <c r="A2508" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2508" s="2">
+        <f t="shared" si="49"/>
+        <v>82</v>
+      </c>
+      <c r="C2508" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:3">
+      <c r="A2509" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2509" s="2">
+        <f t="shared" si="49"/>
+        <v>83</v>
+      </c>
+      <c r="C2509" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:3">
+      <c r="A2510" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2510" s="2">
+        <f t="shared" si="49"/>
+        <v>84</v>
+      </c>
+      <c r="C2510" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:3">
+      <c r="A2511" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2511" s="2">
+        <f t="shared" si="49"/>
+        <v>85</v>
+      </c>
+      <c r="C2511" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:3">
+      <c r="A2512" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2512" s="2">
+        <f t="shared" si="49"/>
+        <v>86</v>
+      </c>
+      <c r="C2512" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:3">
+      <c r="A2513" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2513" s="2">
+        <f t="shared" si="49"/>
+        <v>87</v>
+      </c>
+      <c r="C2513" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:3">
+      <c r="A2514" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2514" s="2">
+        <f t="shared" si="49"/>
+        <v>88</v>
+      </c>
+      <c r="C2514" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:3">
+      <c r="A2515" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2515" s="2">
+        <f t="shared" si="49"/>
+        <v>89</v>
+      </c>
+      <c r="C2515" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2516" s="2">
+        <f t="shared" si="49"/>
+        <v>90</v>
+      </c>
+      <c r="C2516" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2517" s="2">
+        <f t="shared" si="49"/>
+        <v>91</v>
+      </c>
+      <c r="C2517" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2518" s="2">
+        <f t="shared" si="49"/>
+        <v>92</v>
+      </c>
+      <c r="C2518" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2519" s="2">
+        <f t="shared" si="49"/>
+        <v>93</v>
+      </c>
+      <c r="C2519" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2520" s="2">
+        <f t="shared" si="49"/>
+        <v>94</v>
+      </c>
+      <c r="C2520" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2521" s="2">
+        <f t="shared" si="49"/>
+        <v>95</v>
+      </c>
+      <c r="C2521" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2522" s="2">
+        <f t="shared" si="49"/>
+        <v>96</v>
+      </c>
+      <c r="C2522" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2523" s="2">
+        <f t="shared" si="49"/>
+        <v>97</v>
+      </c>
+      <c r="C2523" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2524" s="2">
+        <f t="shared" si="49"/>
+        <v>98</v>
+      </c>
+      <c r="C2524" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2525" s="2">
+        <f t="shared" si="49"/>
+        <v>99</v>
+      </c>
+      <c r="C2525" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2526" s="2">
+        <f t="shared" si="49"/>
+        <v>100</v>
+      </c>
+      <c r="C2526" s="2">
         <v>6.5838044145441769E-4</v>
       </c>
     </row>

--- a/Engine/참좋은간편건강보험1904_기초데이터_20200805.xlsx
+++ b/Engine/참좋은간편건강보험1904_기초데이터_20200805.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="해지율" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">위험률!$A$1:$C$2425</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">위험률!$A$1:$C$2526</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="34">
   <si>
     <t>위험률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,22 @@
   </si>
   <si>
     <t>간편고지질병사망률</t>
+  </si>
+  <si>
+    <t>제자리암(상피내암)발생률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경계성종양발생률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타피부암발생률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑상선암발생률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -478,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2526"/>
+  <dimension ref="A1:I2930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2404" workbookViewId="0">
-      <selection activeCell="B2425" sqref="B2425"/>
+    <sheetView tabSelected="1" topLeftCell="A2504" workbookViewId="0">
+      <selection activeCell="B2527" sqref="B2527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -489,10 +505,12 @@
     <col min="1" max="1" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -502,8 +520,10 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -513,8 +533,10 @@
       <c r="C2" s="2">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -525,8 +547,10 @@
       <c r="C3" s="2">
         <v>1.1000000000000002E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -537,8 +561,10 @@
       <c r="C4" s="2">
         <v>1.2100000000000003E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -549,8 +575,10 @@
       <c r="C5" s="2">
         <v>1.3310000000000004E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -561,8 +589,10 @@
       <c r="C6" s="2">
         <v>1.4641000000000006E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -573,8 +603,10 @@
       <c r="C7" s="2">
         <v>1.6105100000000008E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -585,8 +617,10 @@
       <c r="C8" s="2">
         <v>1.771561000000001E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -597,8 +631,10 @@
       <c r="C9" s="2">
         <v>1.9487171000000012E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -609,8 +645,10 @@
       <c r="C10" s="2">
         <v>2.1435888100000014E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -621,8 +659,10 @@
       <c r="C11" s="2">
         <v>2.3579476910000016E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -633,8 +673,10 @@
       <c r="C12" s="2">
         <v>2.5937424601000017E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -645,8 +687,10 @@
       <c r="C13" s="2">
         <v>2.8531167061100022E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -657,8 +701,10 @@
       <c r="C14" s="2">
         <v>3.1384283767210024E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -669,8 +715,10 @@
       <c r="C15" s="2">
         <v>3.452271214393103E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -681,8 +729,10 @@
       <c r="C16" s="2">
         <v>3.7974983358324136E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -693,8 +743,10 @@
       <c r="C17" s="2">
         <v>4.1772481694156552E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,8 +757,10 @@
       <c r="C18" s="2">
         <v>4.5949729863572212E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,7 +772,7 @@
         <v>5.0544702849929441E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,7 +784,7 @@
         <v>5.0797426364179081E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -742,7 +796,7 @@
         <v>5.1051413495999966E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -754,7 +808,7 @@
         <v>5.1306670563479957E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,7 +820,7 @@
         <v>5.1563203916297356E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -778,7 +832,7 @@
         <v>5.1821019935878833E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -790,7 +844,7 @@
         <v>5.2080125035558218E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -802,7 +856,7 @@
         <v>5.2340525660736004E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,7 +868,7 @@
         <v>5.2602228289039678E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -826,7 +880,7 @@
         <v>5.2865239430484865E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -838,7 +892,7 @@
         <v>5.3129565627637286E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -850,7 +904,7 @@
         <v>5.3395213455775467E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -862,7 +916,7 @@
         <v>5.3662189523054338E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -30776,6 +30830,4850 @@
         <v>100</v>
       </c>
       <c r="C2526" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2527" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2527" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2528" s="2">
+        <f>B2527+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2528" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2529" s="2">
+        <f t="shared" ref="B2529:B2592" si="50">B2528+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2529" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2530" s="2">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="C2530" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2531" s="2">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="C2531" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2532" s="2">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="C2532" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3">
+      <c r="A2533" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2533" s="2">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="C2533" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3">
+      <c r="A2534" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2534" s="2">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
+      <c r="C2534" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3">
+      <c r="A2535" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2535" s="2">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="C2535" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3">
+      <c r="A2536" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2536" s="2">
+        <f t="shared" si="50"/>
+        <v>9</v>
+      </c>
+      <c r="C2536" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3">
+      <c r="A2537" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2537" s="2">
+        <f t="shared" si="50"/>
+        <v>10</v>
+      </c>
+      <c r="C2537" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3">
+      <c r="A2538" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2538" s="2">
+        <f t="shared" si="50"/>
+        <v>11</v>
+      </c>
+      <c r="C2538" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3">
+      <c r="A2539" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2539" s="2">
+        <f t="shared" si="50"/>
+        <v>12</v>
+      </c>
+      <c r="C2539" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3">
+      <c r="A2540" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2540" s="2">
+        <f t="shared" si="50"/>
+        <v>13</v>
+      </c>
+      <c r="C2540" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3">
+      <c r="A2541" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2541" s="2">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="C2541" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3">
+      <c r="A2542" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2542" s="2">
+        <f t="shared" si="50"/>
+        <v>15</v>
+      </c>
+      <c r="C2542" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3">
+      <c r="A2543" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2543" s="2">
+        <f t="shared" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="C2543" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3">
+      <c r="A2544" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2544" s="2">
+        <f t="shared" si="50"/>
+        <v>17</v>
+      </c>
+      <c r="C2544" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3">
+      <c r="A2545" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2545" s="2">
+        <f t="shared" si="50"/>
+        <v>18</v>
+      </c>
+      <c r="C2545" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3">
+      <c r="A2546" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2546" s="2">
+        <f t="shared" si="50"/>
+        <v>19</v>
+      </c>
+      <c r="C2546" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3">
+      <c r="A2547" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2547" s="2">
+        <f t="shared" si="50"/>
+        <v>20</v>
+      </c>
+      <c r="C2547" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3">
+      <c r="A2548" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2548" s="2">
+        <f t="shared" si="50"/>
+        <v>21</v>
+      </c>
+      <c r="C2548" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3">
+      <c r="A2549" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2549" s="2">
+        <f t="shared" si="50"/>
+        <v>22</v>
+      </c>
+      <c r="C2549" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3">
+      <c r="A2550" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2550" s="2">
+        <f t="shared" si="50"/>
+        <v>23</v>
+      </c>
+      <c r="C2550" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3">
+      <c r="A2551" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2551" s="2">
+        <f t="shared" si="50"/>
+        <v>24</v>
+      </c>
+      <c r="C2551" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3">
+      <c r="A2552" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2552" s="2">
+        <f t="shared" si="50"/>
+        <v>25</v>
+      </c>
+      <c r="C2552" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3">
+      <c r="A2553" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2553" s="2">
+        <f t="shared" si="50"/>
+        <v>26</v>
+      </c>
+      <c r="C2553" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:3">
+      <c r="A2554" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2554" s="2">
+        <f t="shared" si="50"/>
+        <v>27</v>
+      </c>
+      <c r="C2554" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:3">
+      <c r="A2555" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2555" s="2">
+        <f t="shared" si="50"/>
+        <v>28</v>
+      </c>
+      <c r="C2555" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:3">
+      <c r="A2556" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2556" s="2">
+        <f t="shared" si="50"/>
+        <v>29</v>
+      </c>
+      <c r="C2556" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:3">
+      <c r="A2557" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2557" s="2">
+        <f t="shared" si="50"/>
+        <v>30</v>
+      </c>
+      <c r="C2557" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:3">
+      <c r="A2558" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2558" s="2">
+        <f t="shared" si="50"/>
+        <v>31</v>
+      </c>
+      <c r="C2558" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:3">
+      <c r="A2559" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2559" s="2">
+        <f t="shared" si="50"/>
+        <v>32</v>
+      </c>
+      <c r="C2559" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:3">
+      <c r="A2560" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2560" s="2">
+        <f t="shared" si="50"/>
+        <v>33</v>
+      </c>
+      <c r="C2560" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3">
+      <c r="A2561" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2561" s="2">
+        <f t="shared" si="50"/>
+        <v>34</v>
+      </c>
+      <c r="C2561" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3">
+      <c r="A2562" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2562" s="2">
+        <f t="shared" si="50"/>
+        <v>35</v>
+      </c>
+      <c r="C2562" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:3">
+      <c r="A2563" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2563" s="2">
+        <f t="shared" si="50"/>
+        <v>36</v>
+      </c>
+      <c r="C2563" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:3">
+      <c r="A2564" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2564" s="2">
+        <f t="shared" si="50"/>
+        <v>37</v>
+      </c>
+      <c r="C2564" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:3">
+      <c r="A2565" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2565" s="2">
+        <f t="shared" si="50"/>
+        <v>38</v>
+      </c>
+      <c r="C2565" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:3">
+      <c r="A2566" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2566" s="2">
+        <f t="shared" si="50"/>
+        <v>39</v>
+      </c>
+      <c r="C2566" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:3">
+      <c r="A2567" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2567" s="2">
+        <f t="shared" si="50"/>
+        <v>40</v>
+      </c>
+      <c r="C2567" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:3">
+      <c r="A2568" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2568" s="2">
+        <f t="shared" si="50"/>
+        <v>41</v>
+      </c>
+      <c r="C2568" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:3">
+      <c r="A2569" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2569" s="2">
+        <f t="shared" si="50"/>
+        <v>42</v>
+      </c>
+      <c r="C2569" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:3">
+      <c r="A2570" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2570" s="2">
+        <f t="shared" si="50"/>
+        <v>43</v>
+      </c>
+      <c r="C2570" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:3">
+      <c r="A2571" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2571" s="2">
+        <f t="shared" si="50"/>
+        <v>44</v>
+      </c>
+      <c r="C2571" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:3">
+      <c r="A2572" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2572" s="2">
+        <f t="shared" si="50"/>
+        <v>45</v>
+      </c>
+      <c r="C2572" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:3">
+      <c r="A2573" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2573" s="2">
+        <f t="shared" si="50"/>
+        <v>46</v>
+      </c>
+      <c r="C2573" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:3">
+      <c r="A2574" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2574" s="2">
+        <f t="shared" si="50"/>
+        <v>47</v>
+      </c>
+      <c r="C2574" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:3">
+      <c r="A2575" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2575" s="2">
+        <f t="shared" si="50"/>
+        <v>48</v>
+      </c>
+      <c r="C2575" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:3">
+      <c r="A2576" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2576" s="2">
+        <f t="shared" si="50"/>
+        <v>49</v>
+      </c>
+      <c r="C2576" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:3">
+      <c r="A2577" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2577" s="2">
+        <f t="shared" si="50"/>
+        <v>50</v>
+      </c>
+      <c r="C2577" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:3">
+      <c r="A2578" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2578" s="2">
+        <f t="shared" si="50"/>
+        <v>51</v>
+      </c>
+      <c r="C2578" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:3">
+      <c r="A2579" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2579" s="2">
+        <f t="shared" si="50"/>
+        <v>52</v>
+      </c>
+      <c r="C2579" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:3">
+      <c r="A2580" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2580" s="2">
+        <f t="shared" si="50"/>
+        <v>53</v>
+      </c>
+      <c r="C2580" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:3">
+      <c r="A2581" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2581" s="2">
+        <f t="shared" si="50"/>
+        <v>54</v>
+      </c>
+      <c r="C2581" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:3">
+      <c r="A2582" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2582" s="2">
+        <f t="shared" si="50"/>
+        <v>55</v>
+      </c>
+      <c r="C2582" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:3">
+      <c r="A2583" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2583" s="2">
+        <f t="shared" si="50"/>
+        <v>56</v>
+      </c>
+      <c r="C2583" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:3">
+      <c r="A2584" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2584" s="2">
+        <f t="shared" si="50"/>
+        <v>57</v>
+      </c>
+      <c r="C2584" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:3">
+      <c r="A2585" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2585" s="2">
+        <f t="shared" si="50"/>
+        <v>58</v>
+      </c>
+      <c r="C2585" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:3">
+      <c r="A2586" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2586" s="2">
+        <f t="shared" si="50"/>
+        <v>59</v>
+      </c>
+      <c r="C2586" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:3">
+      <c r="A2587" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2587" s="2">
+        <f t="shared" si="50"/>
+        <v>60</v>
+      </c>
+      <c r="C2587" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:3">
+      <c r="A2588" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2588" s="2">
+        <f t="shared" si="50"/>
+        <v>61</v>
+      </c>
+      <c r="C2588" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:3">
+      <c r="A2589" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2589" s="2">
+        <f t="shared" si="50"/>
+        <v>62</v>
+      </c>
+      <c r="C2589" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:3">
+      <c r="A2590" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2590" s="2">
+        <f t="shared" si="50"/>
+        <v>63</v>
+      </c>
+      <c r="C2590" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:3">
+      <c r="A2591" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2591" s="2">
+        <f t="shared" si="50"/>
+        <v>64</v>
+      </c>
+      <c r="C2591" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:3">
+      <c r="A2592" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2592" s="2">
+        <f t="shared" si="50"/>
+        <v>65</v>
+      </c>
+      <c r="C2592" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:3">
+      <c r="A2593" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2593" s="2">
+        <f t="shared" ref="B2593:B2627" si="51">B2592+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2593" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:3">
+      <c r="A2594" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2594" s="2">
+        <f t="shared" si="51"/>
+        <v>67</v>
+      </c>
+      <c r="C2594" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:3">
+      <c r="A2595" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2595" s="2">
+        <f t="shared" si="51"/>
+        <v>68</v>
+      </c>
+      <c r="C2595" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:3">
+      <c r="A2596" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2596" s="2">
+        <f t="shared" si="51"/>
+        <v>69</v>
+      </c>
+      <c r="C2596" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:3">
+      <c r="A2597" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2597" s="2">
+        <f t="shared" si="51"/>
+        <v>70</v>
+      </c>
+      <c r="C2597" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:3">
+      <c r="A2598" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2598" s="2">
+        <f t="shared" si="51"/>
+        <v>71</v>
+      </c>
+      <c r="C2598" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:3">
+      <c r="A2599" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2599" s="2">
+        <f t="shared" si="51"/>
+        <v>72</v>
+      </c>
+      <c r="C2599" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:3">
+      <c r="A2600" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2600" s="2">
+        <f t="shared" si="51"/>
+        <v>73</v>
+      </c>
+      <c r="C2600" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:3">
+      <c r="A2601" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2601" s="2">
+        <f t="shared" si="51"/>
+        <v>74</v>
+      </c>
+      <c r="C2601" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:3">
+      <c r="A2602" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2602" s="2">
+        <f t="shared" si="51"/>
+        <v>75</v>
+      </c>
+      <c r="C2602" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:3">
+      <c r="A2603" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2603" s="2">
+        <f t="shared" si="51"/>
+        <v>76</v>
+      </c>
+      <c r="C2603" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:3">
+      <c r="A2604" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2604" s="2">
+        <f t="shared" si="51"/>
+        <v>77</v>
+      </c>
+      <c r="C2604" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:3">
+      <c r="A2605" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2605" s="2">
+        <f t="shared" si="51"/>
+        <v>78</v>
+      </c>
+      <c r="C2605" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:3">
+      <c r="A2606" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2606" s="2">
+        <f t="shared" si="51"/>
+        <v>79</v>
+      </c>
+      <c r="C2606" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:3">
+      <c r="A2607" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2607" s="2">
+        <f t="shared" si="51"/>
+        <v>80</v>
+      </c>
+      <c r="C2607" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:3">
+      <c r="A2608" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2608" s="2">
+        <f t="shared" si="51"/>
+        <v>81</v>
+      </c>
+      <c r="C2608" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:3">
+      <c r="A2609" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2609" s="2">
+        <f t="shared" si="51"/>
+        <v>82</v>
+      </c>
+      <c r="C2609" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:3">
+      <c r="A2610" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2610" s="2">
+        <f t="shared" si="51"/>
+        <v>83</v>
+      </c>
+      <c r="C2610" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:3">
+      <c r="A2611" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2611" s="2">
+        <f t="shared" si="51"/>
+        <v>84</v>
+      </c>
+      <c r="C2611" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:3">
+      <c r="A2612" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2612" s="2">
+        <f t="shared" si="51"/>
+        <v>85</v>
+      </c>
+      <c r="C2612" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:3">
+      <c r="A2613" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2613" s="2">
+        <f t="shared" si="51"/>
+        <v>86</v>
+      </c>
+      <c r="C2613" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:3">
+      <c r="A2614" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2614" s="2">
+        <f t="shared" si="51"/>
+        <v>87</v>
+      </c>
+      <c r="C2614" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:3">
+      <c r="A2615" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2615" s="2">
+        <f t="shared" si="51"/>
+        <v>88</v>
+      </c>
+      <c r="C2615" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:3">
+      <c r="A2616" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2616" s="2">
+        <f t="shared" si="51"/>
+        <v>89</v>
+      </c>
+      <c r="C2616" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:3">
+      <c r="A2617" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2617" s="2">
+        <f t="shared" si="51"/>
+        <v>90</v>
+      </c>
+      <c r="C2617" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:3">
+      <c r="A2618" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2618" s="2">
+        <f t="shared" si="51"/>
+        <v>91</v>
+      </c>
+      <c r="C2618" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:3">
+      <c r="A2619" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2619" s="2">
+        <f t="shared" si="51"/>
+        <v>92</v>
+      </c>
+      <c r="C2619" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:3">
+      <c r="A2620" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2620" s="2">
+        <f t="shared" si="51"/>
+        <v>93</v>
+      </c>
+      <c r="C2620" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:3">
+      <c r="A2621" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2621" s="2">
+        <f t="shared" si="51"/>
+        <v>94</v>
+      </c>
+      <c r="C2621" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:3">
+      <c r="A2622" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2622" s="2">
+        <f t="shared" si="51"/>
+        <v>95</v>
+      </c>
+      <c r="C2622" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:3">
+      <c r="A2623" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2623" s="2">
+        <f t="shared" si="51"/>
+        <v>96</v>
+      </c>
+      <c r="C2623" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:3">
+      <c r="A2624" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2624" s="2">
+        <f t="shared" si="51"/>
+        <v>97</v>
+      </c>
+      <c r="C2624" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:3">
+      <c r="A2625" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2625" s="2">
+        <f t="shared" si="51"/>
+        <v>98</v>
+      </c>
+      <c r="C2625" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:3">
+      <c r="A2626" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2626" s="2">
+        <f t="shared" si="51"/>
+        <v>99</v>
+      </c>
+      <c r="C2626" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:3">
+      <c r="A2627" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2627" s="2">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+      <c r="C2627" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:3">
+      <c r="A2628" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2628" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2628" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:3">
+      <c r="A2629" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2629" s="2">
+        <f>B2628+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2629" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:3">
+      <c r="A2630" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2630" s="2">
+        <f t="shared" ref="B2630:B2693" si="52">B2629+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2630" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:3">
+      <c r="A2631" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2631" s="2">
+        <f t="shared" si="52"/>
+        <v>3</v>
+      </c>
+      <c r="C2631" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:3">
+      <c r="A2632" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2632" s="2">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="C2632" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:3">
+      <c r="A2633" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2633" s="2">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="C2633" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:3">
+      <c r="A2634" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2634" s="2">
+        <f t="shared" si="52"/>
+        <v>6</v>
+      </c>
+      <c r="C2634" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:3">
+      <c r="A2635" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2635" s="2">
+        <f t="shared" si="52"/>
+        <v>7</v>
+      </c>
+      <c r="C2635" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:3">
+      <c r="A2636" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2636" s="2">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="C2636" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:3">
+      <c r="A2637" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2637" s="2">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="C2637" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:3">
+      <c r="A2638" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2638" s="2">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="C2638" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:3">
+      <c r="A2639" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2639" s="2">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+      <c r="C2639" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:3">
+      <c r="A2640" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2640" s="2">
+        <f t="shared" si="52"/>
+        <v>12</v>
+      </c>
+      <c r="C2640" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:3">
+      <c r="A2641" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2641" s="2">
+        <f t="shared" si="52"/>
+        <v>13</v>
+      </c>
+      <c r="C2641" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:3">
+      <c r="A2642" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2642" s="2">
+        <f t="shared" si="52"/>
+        <v>14</v>
+      </c>
+      <c r="C2642" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:3">
+      <c r="A2643" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2643" s="2">
+        <f t="shared" si="52"/>
+        <v>15</v>
+      </c>
+      <c r="C2643" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:3">
+      <c r="A2644" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2644" s="2">
+        <f t="shared" si="52"/>
+        <v>16</v>
+      </c>
+      <c r="C2644" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:3">
+      <c r="A2645" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2645" s="2">
+        <f t="shared" si="52"/>
+        <v>17</v>
+      </c>
+      <c r="C2645" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:3">
+      <c r="A2646" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2646" s="2">
+        <f t="shared" si="52"/>
+        <v>18</v>
+      </c>
+      <c r="C2646" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:3">
+      <c r="A2647" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2647" s="2">
+        <f t="shared" si="52"/>
+        <v>19</v>
+      </c>
+      <c r="C2647" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:3">
+      <c r="A2648" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2648" s="2">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+      <c r="C2648" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:3">
+      <c r="A2649" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2649" s="2">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="C2649" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:3">
+      <c r="A2650" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2650" s="2">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="C2650" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:3">
+      <c r="A2651" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2651" s="2">
+        <f t="shared" si="52"/>
+        <v>23</v>
+      </c>
+      <c r="C2651" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:3">
+      <c r="A2652" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2652" s="2">
+        <f t="shared" si="52"/>
+        <v>24</v>
+      </c>
+      <c r="C2652" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:3">
+      <c r="A2653" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2653" s="2">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="C2653" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:3">
+      <c r="A2654" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2654" s="2">
+        <f t="shared" si="52"/>
+        <v>26</v>
+      </c>
+      <c r="C2654" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:3">
+      <c r="A2655" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2655" s="2">
+        <f t="shared" si="52"/>
+        <v>27</v>
+      </c>
+      <c r="C2655" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:3">
+      <c r="A2656" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2656" s="2">
+        <f t="shared" si="52"/>
+        <v>28</v>
+      </c>
+      <c r="C2656" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:3">
+      <c r="A2657" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2657" s="2">
+        <f t="shared" si="52"/>
+        <v>29</v>
+      </c>
+      <c r="C2657" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:3">
+      <c r="A2658" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2658" s="2">
+        <f t="shared" si="52"/>
+        <v>30</v>
+      </c>
+      <c r="C2658" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:3">
+      <c r="A2659" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2659" s="2">
+        <f t="shared" si="52"/>
+        <v>31</v>
+      </c>
+      <c r="C2659" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:3">
+      <c r="A2660" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2660" s="2">
+        <f t="shared" si="52"/>
+        <v>32</v>
+      </c>
+      <c r="C2660" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:3">
+      <c r="A2661" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2661" s="2">
+        <f t="shared" si="52"/>
+        <v>33</v>
+      </c>
+      <c r="C2661" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:3">
+      <c r="A2662" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2662" s="2">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="C2662" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:3">
+      <c r="A2663" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2663" s="2">
+        <f t="shared" si="52"/>
+        <v>35</v>
+      </c>
+      <c r="C2663" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:3">
+      <c r="A2664" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2664" s="2">
+        <f t="shared" si="52"/>
+        <v>36</v>
+      </c>
+      <c r="C2664" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:3">
+      <c r="A2665" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2665" s="2">
+        <f t="shared" si="52"/>
+        <v>37</v>
+      </c>
+      <c r="C2665" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:3">
+      <c r="A2666" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2666" s="2">
+        <f t="shared" si="52"/>
+        <v>38</v>
+      </c>
+      <c r="C2666" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:3">
+      <c r="A2667" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2667" s="2">
+        <f t="shared" si="52"/>
+        <v>39</v>
+      </c>
+      <c r="C2667" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:3">
+      <c r="A2668" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2668" s="2">
+        <f t="shared" si="52"/>
+        <v>40</v>
+      </c>
+      <c r="C2668" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:3">
+      <c r="A2669" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2669" s="2">
+        <f t="shared" si="52"/>
+        <v>41</v>
+      </c>
+      <c r="C2669" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:3">
+      <c r="A2670" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2670" s="2">
+        <f t="shared" si="52"/>
+        <v>42</v>
+      </c>
+      <c r="C2670" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:3">
+      <c r="A2671" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2671" s="2">
+        <f t="shared" si="52"/>
+        <v>43</v>
+      </c>
+      <c r="C2671" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:3">
+      <c r="A2672" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2672" s="2">
+        <f t="shared" si="52"/>
+        <v>44</v>
+      </c>
+      <c r="C2672" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:3">
+      <c r="A2673" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2673" s="2">
+        <f t="shared" si="52"/>
+        <v>45</v>
+      </c>
+      <c r="C2673" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:3">
+      <c r="A2674" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2674" s="2">
+        <f t="shared" si="52"/>
+        <v>46</v>
+      </c>
+      <c r="C2674" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:3">
+      <c r="A2675" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2675" s="2">
+        <f t="shared" si="52"/>
+        <v>47</v>
+      </c>
+      <c r="C2675" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:3">
+      <c r="A2676" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2676" s="2">
+        <f t="shared" si="52"/>
+        <v>48</v>
+      </c>
+      <c r="C2676" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:3">
+      <c r="A2677" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2677" s="2">
+        <f t="shared" si="52"/>
+        <v>49</v>
+      </c>
+      <c r="C2677" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:3">
+      <c r="A2678" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2678" s="2">
+        <f t="shared" si="52"/>
+        <v>50</v>
+      </c>
+      <c r="C2678" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:3">
+      <c r="A2679" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2679" s="2">
+        <f t="shared" si="52"/>
+        <v>51</v>
+      </c>
+      <c r="C2679" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:3">
+      <c r="A2680" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2680" s="2">
+        <f t="shared" si="52"/>
+        <v>52</v>
+      </c>
+      <c r="C2680" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:3">
+      <c r="A2681" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2681" s="2">
+        <f t="shared" si="52"/>
+        <v>53</v>
+      </c>
+      <c r="C2681" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:3">
+      <c r="A2682" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2682" s="2">
+        <f t="shared" si="52"/>
+        <v>54</v>
+      </c>
+      <c r="C2682" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:3">
+      <c r="A2683" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2683" s="2">
+        <f t="shared" si="52"/>
+        <v>55</v>
+      </c>
+      <c r="C2683" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:3">
+      <c r="A2684" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2684" s="2">
+        <f t="shared" si="52"/>
+        <v>56</v>
+      </c>
+      <c r="C2684" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:3">
+      <c r="A2685" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2685" s="2">
+        <f t="shared" si="52"/>
+        <v>57</v>
+      </c>
+      <c r="C2685" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:3">
+      <c r="A2686" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2686" s="2">
+        <f t="shared" si="52"/>
+        <v>58</v>
+      </c>
+      <c r="C2686" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:3">
+      <c r="A2687" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2687" s="2">
+        <f t="shared" si="52"/>
+        <v>59</v>
+      </c>
+      <c r="C2687" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:3">
+      <c r="A2688" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2688" s="2">
+        <f t="shared" si="52"/>
+        <v>60</v>
+      </c>
+      <c r="C2688" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:3">
+      <c r="A2689" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2689" s="2">
+        <f t="shared" si="52"/>
+        <v>61</v>
+      </c>
+      <c r="C2689" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:3">
+      <c r="A2690" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2690" s="2">
+        <f t="shared" si="52"/>
+        <v>62</v>
+      </c>
+      <c r="C2690" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:3">
+      <c r="A2691" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2691" s="2">
+        <f t="shared" si="52"/>
+        <v>63</v>
+      </c>
+      <c r="C2691" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:3">
+      <c r="A2692" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2692" s="2">
+        <f t="shared" si="52"/>
+        <v>64</v>
+      </c>
+      <c r="C2692" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:3">
+      <c r="A2693" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2693" s="2">
+        <f t="shared" si="52"/>
+        <v>65</v>
+      </c>
+      <c r="C2693" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:3">
+      <c r="A2694" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2694" s="2">
+        <f t="shared" ref="B2694:B2728" si="53">B2693+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2694" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:3">
+      <c r="A2695" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2695" s="2">
+        <f t="shared" si="53"/>
+        <v>67</v>
+      </c>
+      <c r="C2695" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:3">
+      <c r="A2696" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2696" s="2">
+        <f t="shared" si="53"/>
+        <v>68</v>
+      </c>
+      <c r="C2696" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:3">
+      <c r="A2697" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2697" s="2">
+        <f t="shared" si="53"/>
+        <v>69</v>
+      </c>
+      <c r="C2697" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:3">
+      <c r="A2698" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2698" s="2">
+        <f t="shared" si="53"/>
+        <v>70</v>
+      </c>
+      <c r="C2698" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:3">
+      <c r="A2699" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2699" s="2">
+        <f t="shared" si="53"/>
+        <v>71</v>
+      </c>
+      <c r="C2699" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:3">
+      <c r="A2700" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2700" s="2">
+        <f t="shared" si="53"/>
+        <v>72</v>
+      </c>
+      <c r="C2700" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:3">
+      <c r="A2701" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2701" s="2">
+        <f t="shared" si="53"/>
+        <v>73</v>
+      </c>
+      <c r="C2701" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:3">
+      <c r="A2702" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2702" s="2">
+        <f t="shared" si="53"/>
+        <v>74</v>
+      </c>
+      <c r="C2702" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:3">
+      <c r="A2703" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2703" s="2">
+        <f t="shared" si="53"/>
+        <v>75</v>
+      </c>
+      <c r="C2703" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:3">
+      <c r="A2704" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2704" s="2">
+        <f t="shared" si="53"/>
+        <v>76</v>
+      </c>
+      <c r="C2704" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:3">
+      <c r="A2705" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2705" s="2">
+        <f t="shared" si="53"/>
+        <v>77</v>
+      </c>
+      <c r="C2705" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:3">
+      <c r="A2706" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2706" s="2">
+        <f t="shared" si="53"/>
+        <v>78</v>
+      </c>
+      <c r="C2706" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:3">
+      <c r="A2707" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2707" s="2">
+        <f t="shared" si="53"/>
+        <v>79</v>
+      </c>
+      <c r="C2707" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:3">
+      <c r="A2708" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2708" s="2">
+        <f t="shared" si="53"/>
+        <v>80</v>
+      </c>
+      <c r="C2708" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:3">
+      <c r="A2709" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2709" s="2">
+        <f t="shared" si="53"/>
+        <v>81</v>
+      </c>
+      <c r="C2709" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:3">
+      <c r="A2710" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2710" s="2">
+        <f t="shared" si="53"/>
+        <v>82</v>
+      </c>
+      <c r="C2710" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:3">
+      <c r="A2711" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2711" s="2">
+        <f t="shared" si="53"/>
+        <v>83</v>
+      </c>
+      <c r="C2711" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:3">
+      <c r="A2712" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2712" s="2">
+        <f t="shared" si="53"/>
+        <v>84</v>
+      </c>
+      <c r="C2712" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:3">
+      <c r="A2713" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2713" s="2">
+        <f t="shared" si="53"/>
+        <v>85</v>
+      </c>
+      <c r="C2713" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:3">
+      <c r="A2714" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2714" s="2">
+        <f t="shared" si="53"/>
+        <v>86</v>
+      </c>
+      <c r="C2714" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:3">
+      <c r="A2715" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2715" s="2">
+        <f t="shared" si="53"/>
+        <v>87</v>
+      </c>
+      <c r="C2715" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:3">
+      <c r="A2716" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2716" s="2">
+        <f t="shared" si="53"/>
+        <v>88</v>
+      </c>
+      <c r="C2716" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:3">
+      <c r="A2717" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2717" s="2">
+        <f t="shared" si="53"/>
+        <v>89</v>
+      </c>
+      <c r="C2717" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:3">
+      <c r="A2718" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2718" s="2">
+        <f t="shared" si="53"/>
+        <v>90</v>
+      </c>
+      <c r="C2718" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:3">
+      <c r="A2719" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2719" s="2">
+        <f t="shared" si="53"/>
+        <v>91</v>
+      </c>
+      <c r="C2719" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:3">
+      <c r="A2720" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2720" s="2">
+        <f t="shared" si="53"/>
+        <v>92</v>
+      </c>
+      <c r="C2720" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:3">
+      <c r="A2721" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2721" s="2">
+        <f t="shared" si="53"/>
+        <v>93</v>
+      </c>
+      <c r="C2721" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:3">
+      <c r="A2722" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2722" s="2">
+        <f t="shared" si="53"/>
+        <v>94</v>
+      </c>
+      <c r="C2722" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:3">
+      <c r="A2723" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2723" s="2">
+        <f t="shared" si="53"/>
+        <v>95</v>
+      </c>
+      <c r="C2723" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:3">
+      <c r="A2724" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2724" s="2">
+        <f t="shared" si="53"/>
+        <v>96</v>
+      </c>
+      <c r="C2724" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:3">
+      <c r="A2725" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2725" s="2">
+        <f t="shared" si="53"/>
+        <v>97</v>
+      </c>
+      <c r="C2725" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:3">
+      <c r="A2726" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2726" s="2">
+        <f t="shared" si="53"/>
+        <v>98</v>
+      </c>
+      <c r="C2726" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:3">
+      <c r="A2727" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2727" s="2">
+        <f t="shared" si="53"/>
+        <v>99</v>
+      </c>
+      <c r="C2727" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:3">
+      <c r="A2728" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2728" s="2">
+        <f t="shared" si="53"/>
+        <v>100</v>
+      </c>
+      <c r="C2728" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:3">
+      <c r="A2729" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2729" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2729" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:3">
+      <c r="A2730" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2730" s="2">
+        <f>B2729+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2730" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:3">
+      <c r="A2731" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2731" s="2">
+        <f t="shared" ref="B2731:B2794" si="54">B2730+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2731" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:3">
+      <c r="A2732" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2732" s="2">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+      <c r="C2732" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:3">
+      <c r="A2733" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2733" s="2">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="C2733" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:3">
+      <c r="A2734" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2734" s="2">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
+      <c r="C2734" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:3">
+      <c r="A2735" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2735" s="2">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="C2735" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:3">
+      <c r="A2736" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2736" s="2">
+        <f t="shared" si="54"/>
+        <v>7</v>
+      </c>
+      <c r="C2736" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:3">
+      <c r="A2737" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2737" s="2">
+        <f t="shared" si="54"/>
+        <v>8</v>
+      </c>
+      <c r="C2737" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:3">
+      <c r="A2738" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2738" s="2">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="C2738" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:3">
+      <c r="A2739" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2739" s="2">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="C2739" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:3">
+      <c r="A2740" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2740" s="2">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="C2740" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:3">
+      <c r="A2741" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2741" s="2">
+        <f t="shared" si="54"/>
+        <v>12</v>
+      </c>
+      <c r="C2741" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:3">
+      <c r="A2742" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2742" s="2">
+        <f t="shared" si="54"/>
+        <v>13</v>
+      </c>
+      <c r="C2742" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:3">
+      <c r="A2743" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2743" s="2">
+        <f t="shared" si="54"/>
+        <v>14</v>
+      </c>
+      <c r="C2743" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:3">
+      <c r="A2744" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2744" s="2">
+        <f t="shared" si="54"/>
+        <v>15</v>
+      </c>
+      <c r="C2744" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:3">
+      <c r="A2745" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2745" s="2">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="C2745" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:3">
+      <c r="A2746" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2746" s="2">
+        <f t="shared" si="54"/>
+        <v>17</v>
+      </c>
+      <c r="C2746" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:3">
+      <c r="A2747" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2747" s="2">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="C2747" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:3">
+      <c r="A2748" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2748" s="2">
+        <f t="shared" si="54"/>
+        <v>19</v>
+      </c>
+      <c r="C2748" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:3">
+      <c r="A2749" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2749" s="2">
+        <f t="shared" si="54"/>
+        <v>20</v>
+      </c>
+      <c r="C2749" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:3">
+      <c r="A2750" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2750" s="2">
+        <f t="shared" si="54"/>
+        <v>21</v>
+      </c>
+      <c r="C2750" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:3">
+      <c r="A2751" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2751" s="2">
+        <f t="shared" si="54"/>
+        <v>22</v>
+      </c>
+      <c r="C2751" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:3">
+      <c r="A2752" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2752" s="2">
+        <f t="shared" si="54"/>
+        <v>23</v>
+      </c>
+      <c r="C2752" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:3">
+      <c r="A2753" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2753" s="2">
+        <f t="shared" si="54"/>
+        <v>24</v>
+      </c>
+      <c r="C2753" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:3">
+      <c r="A2754" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2754" s="2">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="C2754" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:3">
+      <c r="A2755" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2755" s="2">
+        <f t="shared" si="54"/>
+        <v>26</v>
+      </c>
+      <c r="C2755" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:3">
+      <c r="A2756" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2756" s="2">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="C2756" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:3">
+      <c r="A2757" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2757" s="2">
+        <f t="shared" si="54"/>
+        <v>28</v>
+      </c>
+      <c r="C2757" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:3">
+      <c r="A2758" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2758" s="2">
+        <f t="shared" si="54"/>
+        <v>29</v>
+      </c>
+      <c r="C2758" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:3">
+      <c r="A2759" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2759" s="2">
+        <f t="shared" si="54"/>
+        <v>30</v>
+      </c>
+      <c r="C2759" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:3">
+      <c r="A2760" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2760" s="2">
+        <f t="shared" si="54"/>
+        <v>31</v>
+      </c>
+      <c r="C2760" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:3">
+      <c r="A2761" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2761" s="2">
+        <f t="shared" si="54"/>
+        <v>32</v>
+      </c>
+      <c r="C2761" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:3">
+      <c r="A2762" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2762" s="2">
+        <f t="shared" si="54"/>
+        <v>33</v>
+      </c>
+      <c r="C2762" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:3">
+      <c r="A2763" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2763" s="2">
+        <f t="shared" si="54"/>
+        <v>34</v>
+      </c>
+      <c r="C2763" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:3">
+      <c r="A2764" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2764" s="2">
+        <f t="shared" si="54"/>
+        <v>35</v>
+      </c>
+      <c r="C2764" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:3">
+      <c r="A2765" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2765" s="2">
+        <f t="shared" si="54"/>
+        <v>36</v>
+      </c>
+      <c r="C2765" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:3">
+      <c r="A2766" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2766" s="2">
+        <f t="shared" si="54"/>
+        <v>37</v>
+      </c>
+      <c r="C2766" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:3">
+      <c r="A2767" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2767" s="2">
+        <f t="shared" si="54"/>
+        <v>38</v>
+      </c>
+      <c r="C2767" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:3">
+      <c r="A2768" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2768" s="2">
+        <f t="shared" si="54"/>
+        <v>39</v>
+      </c>
+      <c r="C2768" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3">
+      <c r="A2769" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2769" s="2">
+        <f t="shared" si="54"/>
+        <v>40</v>
+      </c>
+      <c r="C2769" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3">
+      <c r="A2770" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2770" s="2">
+        <f t="shared" si="54"/>
+        <v>41</v>
+      </c>
+      <c r="C2770" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3">
+      <c r="A2771" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2771" s="2">
+        <f t="shared" si="54"/>
+        <v>42</v>
+      </c>
+      <c r="C2771" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3">
+      <c r="A2772" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2772" s="2">
+        <f t="shared" si="54"/>
+        <v>43</v>
+      </c>
+      <c r="C2772" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3">
+      <c r="A2773" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2773" s="2">
+        <f t="shared" si="54"/>
+        <v>44</v>
+      </c>
+      <c r="C2773" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3">
+      <c r="A2774" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2774" s="2">
+        <f t="shared" si="54"/>
+        <v>45</v>
+      </c>
+      <c r="C2774" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3">
+      <c r="A2775" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2775" s="2">
+        <f t="shared" si="54"/>
+        <v>46</v>
+      </c>
+      <c r="C2775" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3">
+      <c r="A2776" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2776" s="2">
+        <f t="shared" si="54"/>
+        <v>47</v>
+      </c>
+      <c r="C2776" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3">
+      <c r="A2777" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2777" s="2">
+        <f t="shared" si="54"/>
+        <v>48</v>
+      </c>
+      <c r="C2777" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3">
+      <c r="A2778" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2778" s="2">
+        <f t="shared" si="54"/>
+        <v>49</v>
+      </c>
+      <c r="C2778" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3">
+      <c r="A2779" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2779" s="2">
+        <f t="shared" si="54"/>
+        <v>50</v>
+      </c>
+      <c r="C2779" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3">
+      <c r="A2780" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2780" s="2">
+        <f t="shared" si="54"/>
+        <v>51</v>
+      </c>
+      <c r="C2780" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3">
+      <c r="A2781" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2781" s="2">
+        <f t="shared" si="54"/>
+        <v>52</v>
+      </c>
+      <c r="C2781" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3">
+      <c r="A2782" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2782" s="2">
+        <f t="shared" si="54"/>
+        <v>53</v>
+      </c>
+      <c r="C2782" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3">
+      <c r="A2783" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2783" s="2">
+        <f t="shared" si="54"/>
+        <v>54</v>
+      </c>
+      <c r="C2783" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3">
+      <c r="A2784" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2784" s="2">
+        <f t="shared" si="54"/>
+        <v>55</v>
+      </c>
+      <c r="C2784" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:3">
+      <c r="A2785" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2785" s="2">
+        <f t="shared" si="54"/>
+        <v>56</v>
+      </c>
+      <c r="C2785" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:3">
+      <c r="A2786" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2786" s="2">
+        <f t="shared" si="54"/>
+        <v>57</v>
+      </c>
+      <c r="C2786" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:3">
+      <c r="A2787" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2787" s="2">
+        <f t="shared" si="54"/>
+        <v>58</v>
+      </c>
+      <c r="C2787" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:3">
+      <c r="A2788" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2788" s="2">
+        <f t="shared" si="54"/>
+        <v>59</v>
+      </c>
+      <c r="C2788" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:3">
+      <c r="A2789" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2789" s="2">
+        <f t="shared" si="54"/>
+        <v>60</v>
+      </c>
+      <c r="C2789" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:3">
+      <c r="A2790" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2790" s="2">
+        <f t="shared" si="54"/>
+        <v>61</v>
+      </c>
+      <c r="C2790" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:3">
+      <c r="A2791" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2791" s="2">
+        <f t="shared" si="54"/>
+        <v>62</v>
+      </c>
+      <c r="C2791" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:3">
+      <c r="A2792" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2792" s="2">
+        <f t="shared" si="54"/>
+        <v>63</v>
+      </c>
+      <c r="C2792" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:3">
+      <c r="A2793" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2793" s="2">
+        <f t="shared" si="54"/>
+        <v>64</v>
+      </c>
+      <c r="C2793" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:3">
+      <c r="A2794" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2794" s="2">
+        <f t="shared" si="54"/>
+        <v>65</v>
+      </c>
+      <c r="C2794" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:3">
+      <c r="A2795" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2795" s="2">
+        <f t="shared" ref="B2795:B2829" si="55">B2794+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2795" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:3">
+      <c r="A2796" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2796" s="2">
+        <f t="shared" si="55"/>
+        <v>67</v>
+      </c>
+      <c r="C2796" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:3">
+      <c r="A2797" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2797" s="2">
+        <f t="shared" si="55"/>
+        <v>68</v>
+      </c>
+      <c r="C2797" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:3">
+      <c r="A2798" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2798" s="2">
+        <f t="shared" si="55"/>
+        <v>69</v>
+      </c>
+      <c r="C2798" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:3">
+      <c r="A2799" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2799" s="2">
+        <f t="shared" si="55"/>
+        <v>70</v>
+      </c>
+      <c r="C2799" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:3">
+      <c r="A2800" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2800" s="2">
+        <f t="shared" si="55"/>
+        <v>71</v>
+      </c>
+      <c r="C2800" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:3">
+      <c r="A2801" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2801" s="2">
+        <f t="shared" si="55"/>
+        <v>72</v>
+      </c>
+      <c r="C2801" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:3">
+      <c r="A2802" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2802" s="2">
+        <f t="shared" si="55"/>
+        <v>73</v>
+      </c>
+      <c r="C2802" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:3">
+      <c r="A2803" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2803" s="2">
+        <f t="shared" si="55"/>
+        <v>74</v>
+      </c>
+      <c r="C2803" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:3">
+      <c r="A2804" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2804" s="2">
+        <f t="shared" si="55"/>
+        <v>75</v>
+      </c>
+      <c r="C2804" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:3">
+      <c r="A2805" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2805" s="2">
+        <f t="shared" si="55"/>
+        <v>76</v>
+      </c>
+      <c r="C2805" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:3">
+      <c r="A2806" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2806" s="2">
+        <f t="shared" si="55"/>
+        <v>77</v>
+      </c>
+      <c r="C2806" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:3">
+      <c r="A2807" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2807" s="2">
+        <f t="shared" si="55"/>
+        <v>78</v>
+      </c>
+      <c r="C2807" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:3">
+      <c r="A2808" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2808" s="2">
+        <f t="shared" si="55"/>
+        <v>79</v>
+      </c>
+      <c r="C2808" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:3">
+      <c r="A2809" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2809" s="2">
+        <f t="shared" si="55"/>
+        <v>80</v>
+      </c>
+      <c r="C2809" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:3">
+      <c r="A2810" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2810" s="2">
+        <f t="shared" si="55"/>
+        <v>81</v>
+      </c>
+      <c r="C2810" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:3">
+      <c r="A2811" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2811" s="2">
+        <f t="shared" si="55"/>
+        <v>82</v>
+      </c>
+      <c r="C2811" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:3">
+      <c r="A2812" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2812" s="2">
+        <f t="shared" si="55"/>
+        <v>83</v>
+      </c>
+      <c r="C2812" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:3">
+      <c r="A2813" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2813" s="2">
+        <f t="shared" si="55"/>
+        <v>84</v>
+      </c>
+      <c r="C2813" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:3">
+      <c r="A2814" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2814" s="2">
+        <f t="shared" si="55"/>
+        <v>85</v>
+      </c>
+      <c r="C2814" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:3">
+      <c r="A2815" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2815" s="2">
+        <f t="shared" si="55"/>
+        <v>86</v>
+      </c>
+      <c r="C2815" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:3">
+      <c r="A2816" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2816" s="2">
+        <f t="shared" si="55"/>
+        <v>87</v>
+      </c>
+      <c r="C2816" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:3">
+      <c r="A2817" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2817" s="2">
+        <f t="shared" si="55"/>
+        <v>88</v>
+      </c>
+      <c r="C2817" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:3">
+      <c r="A2818" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2818" s="2">
+        <f t="shared" si="55"/>
+        <v>89</v>
+      </c>
+      <c r="C2818" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:3">
+      <c r="A2819" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2819" s="2">
+        <f t="shared" si="55"/>
+        <v>90</v>
+      </c>
+      <c r="C2819" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:3">
+      <c r="A2820" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2820" s="2">
+        <f t="shared" si="55"/>
+        <v>91</v>
+      </c>
+      <c r="C2820" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:3">
+      <c r="A2821" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2821" s="2">
+        <f t="shared" si="55"/>
+        <v>92</v>
+      </c>
+      <c r="C2821" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:3">
+      <c r="A2822" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2822" s="2">
+        <f t="shared" si="55"/>
+        <v>93</v>
+      </c>
+      <c r="C2822" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:3">
+      <c r="A2823" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2823" s="2">
+        <f t="shared" si="55"/>
+        <v>94</v>
+      </c>
+      <c r="C2823" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:3">
+      <c r="A2824" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2824" s="2">
+        <f t="shared" si="55"/>
+        <v>95</v>
+      </c>
+      <c r="C2824" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:3">
+      <c r="A2825" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2825" s="2">
+        <f t="shared" si="55"/>
+        <v>96</v>
+      </c>
+      <c r="C2825" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:3">
+      <c r="A2826" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2826" s="2">
+        <f t="shared" si="55"/>
+        <v>97</v>
+      </c>
+      <c r="C2826" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:3">
+      <c r="A2827" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2827" s="2">
+        <f t="shared" si="55"/>
+        <v>98</v>
+      </c>
+      <c r="C2827" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:3">
+      <c r="A2828" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2828" s="2">
+        <f t="shared" si="55"/>
+        <v>99</v>
+      </c>
+      <c r="C2828" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:3">
+      <c r="A2829" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2829" s="2">
+        <f t="shared" si="55"/>
+        <v>100</v>
+      </c>
+      <c r="C2829" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:3">
+      <c r="A2830" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2830" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2830" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:3">
+      <c r="A2831" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2831" s="2">
+        <f>B2830+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2831" s="2">
+        <v>1.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:3">
+      <c r="A2832" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2832" s="2">
+        <f t="shared" ref="B2832:B2895" si="56">B2831+1</f>
+        <v>2</v>
+      </c>
+      <c r="C2832" s="2">
+        <v>1.2100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:3">
+      <c r="A2833" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2833" s="2">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="C2833" s="2">
+        <v>1.3310000000000004E-4</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:3">
+      <c r="A2834" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2834" s="2">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="C2834" s="2">
+        <v>1.4641000000000006E-4</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:3">
+      <c r="A2835" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2835" s="2">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="C2835" s="2">
+        <v>1.6105100000000008E-4</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:3">
+      <c r="A2836" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2836" s="2">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="C2836" s="2">
+        <v>1.771561000000001E-4</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:3">
+      <c r="A2837" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2837" s="2">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+      <c r="C2837" s="2">
+        <v>1.9487171000000012E-4</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:3">
+      <c r="A2838" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2838" s="2">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="C2838" s="2">
+        <v>2.1435888100000014E-4</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:3">
+      <c r="A2839" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2839" s="2">
+        <f t="shared" si="56"/>
+        <v>9</v>
+      </c>
+      <c r="C2839" s="2">
+        <v>2.3579476910000016E-4</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:3">
+      <c r="A2840" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2840" s="2">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="C2840" s="2">
+        <v>2.5937424601000017E-4</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:3">
+      <c r="A2841" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2841" s="2">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="C2841" s="2">
+        <v>2.8531167061100022E-4</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:3">
+      <c r="A2842" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2842" s="2">
+        <f t="shared" si="56"/>
+        <v>12</v>
+      </c>
+      <c r="C2842" s="2">
+        <v>3.1384283767210024E-4</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:3">
+      <c r="A2843" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2843" s="2">
+        <f t="shared" si="56"/>
+        <v>13</v>
+      </c>
+      <c r="C2843" s="2">
+        <v>3.452271214393103E-4</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:3">
+      <c r="A2844" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2844" s="2">
+        <f t="shared" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="C2844" s="2">
+        <v>3.7974983358324136E-4</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:3">
+      <c r="A2845" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2845" s="2">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="C2845" s="2">
+        <v>4.1772481694156552E-4</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:3">
+      <c r="A2846" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2846" s="2">
+        <f t="shared" si="56"/>
+        <v>16</v>
+      </c>
+      <c r="C2846" s="2">
+        <v>4.5949729863572212E-4</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:3">
+      <c r="A2847" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2847" s="2">
+        <f t="shared" si="56"/>
+        <v>17</v>
+      </c>
+      <c r="C2847" s="2">
+        <v>5.0544702849929441E-4</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:3">
+      <c r="A2848" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2848" s="2">
+        <f t="shared" si="56"/>
+        <v>18</v>
+      </c>
+      <c r="C2848" s="2">
+        <v>5.0797426364179081E-4</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:3">
+      <c r="A2849" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2849" s="2">
+        <f t="shared" si="56"/>
+        <v>19</v>
+      </c>
+      <c r="C2849" s="2">
+        <v>5.1051413495999966E-4</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:3">
+      <c r="A2850" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2850" s="2">
+        <f t="shared" si="56"/>
+        <v>20</v>
+      </c>
+      <c r="C2850" s="2">
+        <v>5.1306670563479957E-4</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:3">
+      <c r="A2851" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2851" s="2">
+        <f t="shared" si="56"/>
+        <v>21</v>
+      </c>
+      <c r="C2851" s="2">
+        <v>5.1563203916297356E-4</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:3">
+      <c r="A2852" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2852" s="2">
+        <f t="shared" si="56"/>
+        <v>22</v>
+      </c>
+      <c r="C2852" s="2">
+        <v>5.1821019935878833E-4</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:3">
+      <c r="A2853" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2853" s="2">
+        <f t="shared" si="56"/>
+        <v>23</v>
+      </c>
+      <c r="C2853" s="2">
+        <v>5.2080125035558218E-4</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:3">
+      <c r="A2854" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2854" s="2">
+        <f t="shared" si="56"/>
+        <v>24</v>
+      </c>
+      <c r="C2854" s="2">
+        <v>5.2340525660736004E-4</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:3">
+      <c r="A2855" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2855" s="2">
+        <f t="shared" si="56"/>
+        <v>25</v>
+      </c>
+      <c r="C2855" s="2">
+        <v>5.2602228289039678E-4</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:3">
+      <c r="A2856" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2856" s="2">
+        <f t="shared" si="56"/>
+        <v>26</v>
+      </c>
+      <c r="C2856" s="2">
+        <v>5.2865239430484865E-4</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:3">
+      <c r="A2857" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2857" s="2">
+        <f t="shared" si="56"/>
+        <v>27</v>
+      </c>
+      <c r="C2857" s="2">
+        <v>5.3129565627637286E-4</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:3">
+      <c r="A2858" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2858" s="2">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
+      <c r="C2858" s="2">
+        <v>5.3395213455775467E-4</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:3">
+      <c r="A2859" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2859" s="2">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="C2859" s="2">
+        <v>5.3662189523054338E-4</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:3">
+      <c r="A2860" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2860" s="2">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="C2860" s="2">
+        <v>5.3930500470669609E-4</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:3">
+      <c r="A2861" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2861" s="2">
+        <f t="shared" si="56"/>
+        <v>31</v>
+      </c>
+      <c r="C2861" s="2">
+        <v>5.4200152973022948E-4</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:3">
+      <c r="A2862" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2862" s="2">
+        <f t="shared" si="56"/>
+        <v>32</v>
+      </c>
+      <c r="C2862" s="2">
+        <v>5.4471153737888057E-4</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:3">
+      <c r="A2863" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2863" s="2">
+        <f t="shared" si="56"/>
+        <v>33</v>
+      </c>
+      <c r="C2863" s="2">
+        <v>5.4743509506577489E-4</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:3">
+      <c r="A2864" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2864" s="2">
+        <f t="shared" si="56"/>
+        <v>34</v>
+      </c>
+      <c r="C2864" s="2">
+        <v>5.5017227054110366E-4</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:3">
+      <c r="A2865" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2865" s="2">
+        <f t="shared" si="56"/>
+        <v>35</v>
+      </c>
+      <c r="C2865" s="2">
+        <v>5.5292313189380911E-4</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:3">
+      <c r="A2866" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2866" s="2">
+        <f t="shared" si="56"/>
+        <v>36</v>
+      </c>
+      <c r="C2866" s="2">
+        <v>5.5568774755327809E-4</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:3">
+      <c r="A2867" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2867" s="2">
+        <f t="shared" si="56"/>
+        <v>37</v>
+      </c>
+      <c r="C2867" s="2">
+        <v>5.5846618629104441E-4</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3">
+      <c r="A2868" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2868" s="2">
+        <f t="shared" si="56"/>
+        <v>38</v>
+      </c>
+      <c r="C2868" s="2">
+        <v>5.6125851722249956E-4</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:3">
+      <c r="A2869" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2869" s="2">
+        <f t="shared" si="56"/>
+        <v>39</v>
+      </c>
+      <c r="C2869" s="2">
+        <v>5.6406480980861196E-4</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:3">
+      <c r="A2870" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2870" s="2">
+        <f t="shared" si="56"/>
+        <v>40</v>
+      </c>
+      <c r="C2870" s="2">
+        <v>5.6688513385765493E-4</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3">
+      <c r="A2871" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2871" s="2">
+        <f t="shared" si="56"/>
+        <v>41</v>
+      </c>
+      <c r="C2871" s="2">
+        <v>5.6971955952694311E-4</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3">
+      <c r="A2872" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2872" s="2">
+        <f t="shared" si="56"/>
+        <v>42</v>
+      </c>
+      <c r="C2872" s="2">
+        <v>5.7256815732457781E-4</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3">
+      <c r="A2873" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2873" s="2">
+        <f t="shared" si="56"/>
+        <v>43</v>
+      </c>
+      <c r="C2873" s="2">
+        <v>5.7543099811120061E-4</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:3">
+      <c r="A2874" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2874" s="2">
+        <f t="shared" si="56"/>
+        <v>44</v>
+      </c>
+      <c r="C2874" s="2">
+        <v>5.7830815310175657E-4</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:3">
+      <c r="A2875" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2875" s="2">
+        <f t="shared" si="56"/>
+        <v>45</v>
+      </c>
+      <c r="C2875" s="2">
+        <v>5.8119969386726531E-4</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3">
+      <c r="A2876" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2876" s="2">
+        <f t="shared" si="56"/>
+        <v>46</v>
+      </c>
+      <c r="C2876" s="2">
+        <v>5.8410569233660159E-4</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3">
+      <c r="A2877" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2877" s="2">
+        <f t="shared" si="56"/>
+        <v>47</v>
+      </c>
+      <c r="C2877" s="2">
+        <v>5.8702622079828454E-4</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3">
+      <c r="A2878" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2878" s="2">
+        <f t="shared" si="56"/>
+        <v>48</v>
+      </c>
+      <c r="C2878" s="2">
+        <v>5.8996135190227594E-4</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3">
+      <c r="A2879" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2879" s="2">
+        <f t="shared" si="56"/>
+        <v>49</v>
+      </c>
+      <c r="C2879" s="2">
+        <v>5.9291115866178727E-4</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:3">
+      <c r="A2880" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2880" s="2">
+        <f t="shared" si="56"/>
+        <v>50</v>
+      </c>
+      <c r="C2880" s="2">
+        <v>5.9587571445509616E-4</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3">
+      <c r="A2881" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2881" s="2">
+        <f t="shared" si="56"/>
+        <v>51</v>
+      </c>
+      <c r="C2881" s="2">
+        <v>5.9885509302737153E-4</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3">
+      <c r="A2882" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2882" s="2">
+        <f t="shared" si="56"/>
+        <v>52</v>
+      </c>
+      <c r="C2882" s="2">
+        <v>6.0184936849250832E-4</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:3">
+      <c r="A2883" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2883" s="2">
+        <f t="shared" si="56"/>
+        <v>53</v>
+      </c>
+      <c r="C2883" s="2">
+        <v>6.048586153349708E-4</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:3">
+      <c r="A2884" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2884" s="2">
+        <f t="shared" si="56"/>
+        <v>54</v>
+      </c>
+      <c r="C2884" s="2">
+        <v>6.0788290841164562E-4</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:3">
+      <c r="A2885" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2885" s="2">
+        <f t="shared" si="56"/>
+        <v>55</v>
+      </c>
+      <c r="C2885" s="2">
+        <v>6.1092232295370378E-4</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:3">
+      <c r="A2886" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2886" s="2">
+        <f t="shared" si="56"/>
+        <v>56</v>
+      </c>
+      <c r="C2886" s="2">
+        <v>6.1397693456847222E-4</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:3">
+      <c r="A2887" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2887" s="2">
+        <f t="shared" si="56"/>
+        <v>57</v>
+      </c>
+      <c r="C2887" s="2">
+        <v>6.1704681924131454E-4</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:3">
+      <c r="A2888" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2888" s="2">
+        <f t="shared" si="56"/>
+        <v>58</v>
+      </c>
+      <c r="C2888" s="2">
+        <v>6.2013205333752105E-4</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:3">
+      <c r="A2889" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2889" s="2">
+        <f t="shared" si="56"/>
+        <v>59</v>
+      </c>
+      <c r="C2889" s="2">
+        <v>6.2323271360420864E-4</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:3">
+      <c r="A2890" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2890" s="2">
+        <f t="shared" si="56"/>
+        <v>60</v>
+      </c>
+      <c r="C2890" s="2">
+        <v>6.2634887717222959E-4</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:3">
+      <c r="A2891" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2891" s="2">
+        <f t="shared" si="56"/>
+        <v>61</v>
+      </c>
+      <c r="C2891" s="2">
+        <v>6.2948062155809067E-4</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:3">
+      <c r="A2892" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2892" s="2">
+        <f t="shared" si="56"/>
+        <v>62</v>
+      </c>
+      <c r="C2892" s="2">
+        <v>6.3262802466588109E-4</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:3">
+      <c r="A2893" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2893" s="2">
+        <f t="shared" si="56"/>
+        <v>63</v>
+      </c>
+      <c r="C2893" s="2">
+        <v>6.3579116478921041E-4</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:3">
+      <c r="A2894" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2894" s="2">
+        <f t="shared" si="56"/>
+        <v>64</v>
+      </c>
+      <c r="C2894" s="2">
+        <v>6.3897012061315639E-4</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:3">
+      <c r="A2895" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2895" s="2">
+        <f t="shared" si="56"/>
+        <v>65</v>
+      </c>
+      <c r="C2895" s="2">
+        <v>6.4216497121622211E-4</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:3">
+      <c r="A2896" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2896" s="2">
+        <f t="shared" ref="B2896:B2930" si="57">B2895+1</f>
+        <v>66</v>
+      </c>
+      <c r="C2896" s="2">
+        <v>6.4537579607230314E-4</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:3">
+      <c r="A2897" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2897" s="2">
+        <f t="shared" si="57"/>
+        <v>67</v>
+      </c>
+      <c r="C2897" s="2">
+        <v>6.4860267505266456E-4</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:3">
+      <c r="A2898" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2898" s="2">
+        <f t="shared" si="57"/>
+        <v>68</v>
+      </c>
+      <c r="C2898" s="2">
+        <v>6.518456884279278E-4</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:3">
+      <c r="A2899" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2899" s="2">
+        <f t="shared" si="57"/>
+        <v>69</v>
+      </c>
+      <c r="C2899" s="2">
+        <v>6.5510491687006739E-4</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:3">
+      <c r="A2900" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2900" s="2">
+        <f t="shared" si="57"/>
+        <v>70</v>
+      </c>
+      <c r="C2900" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:3">
+      <c r="A2901" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2901" s="2">
+        <f t="shared" si="57"/>
+        <v>71</v>
+      </c>
+      <c r="C2901" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:3">
+      <c r="A2902" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2902" s="2">
+        <f t="shared" si="57"/>
+        <v>72</v>
+      </c>
+      <c r="C2902" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:3">
+      <c r="A2903" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2903" s="2">
+        <f t="shared" si="57"/>
+        <v>73</v>
+      </c>
+      <c r="C2903" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:3">
+      <c r="A2904" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2904" s="2">
+        <f t="shared" si="57"/>
+        <v>74</v>
+      </c>
+      <c r="C2904" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:3">
+      <c r="A2905" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2905" s="2">
+        <f t="shared" si="57"/>
+        <v>75</v>
+      </c>
+      <c r="C2905" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:3">
+      <c r="A2906" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2906" s="2">
+        <f t="shared" si="57"/>
+        <v>76</v>
+      </c>
+      <c r="C2906" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:3">
+      <c r="A2907" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2907" s="2">
+        <f t="shared" si="57"/>
+        <v>77</v>
+      </c>
+      <c r="C2907" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:3">
+      <c r="A2908" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2908" s="2">
+        <f t="shared" si="57"/>
+        <v>78</v>
+      </c>
+      <c r="C2908" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:3">
+      <c r="A2909" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2909" s="2">
+        <f t="shared" si="57"/>
+        <v>79</v>
+      </c>
+      <c r="C2909" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:3">
+      <c r="A2910" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2910" s="2">
+        <f t="shared" si="57"/>
+        <v>80</v>
+      </c>
+      <c r="C2910" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:3">
+      <c r="A2911" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2911" s="2">
+        <f t="shared" si="57"/>
+        <v>81</v>
+      </c>
+      <c r="C2911" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:3">
+      <c r="A2912" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2912" s="2">
+        <f t="shared" si="57"/>
+        <v>82</v>
+      </c>
+      <c r="C2912" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:3">
+      <c r="A2913" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2913" s="2">
+        <f t="shared" si="57"/>
+        <v>83</v>
+      </c>
+      <c r="C2913" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:3">
+      <c r="A2914" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2914" s="2">
+        <f t="shared" si="57"/>
+        <v>84</v>
+      </c>
+      <c r="C2914" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:3">
+      <c r="A2915" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2915" s="2">
+        <f t="shared" si="57"/>
+        <v>85</v>
+      </c>
+      <c r="C2915" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:3">
+      <c r="A2916" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2916" s="2">
+        <f t="shared" si="57"/>
+        <v>86</v>
+      </c>
+      <c r="C2916" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:3">
+      <c r="A2917" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2917" s="2">
+        <f t="shared" si="57"/>
+        <v>87</v>
+      </c>
+      <c r="C2917" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:3">
+      <c r="A2918" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2918" s="2">
+        <f t="shared" si="57"/>
+        <v>88</v>
+      </c>
+      <c r="C2918" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:3">
+      <c r="A2919" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2919" s="2">
+        <f t="shared" si="57"/>
+        <v>89</v>
+      </c>
+      <c r="C2919" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:3">
+      <c r="A2920" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2920" s="2">
+        <f t="shared" si="57"/>
+        <v>90</v>
+      </c>
+      <c r="C2920" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:3">
+      <c r="A2921" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2921" s="2">
+        <f t="shared" si="57"/>
+        <v>91</v>
+      </c>
+      <c r="C2921" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:3">
+      <c r="A2922" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2922" s="2">
+        <f t="shared" si="57"/>
+        <v>92</v>
+      </c>
+      <c r="C2922" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:3">
+      <c r="A2923" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2923" s="2">
+        <f t="shared" si="57"/>
+        <v>93</v>
+      </c>
+      <c r="C2923" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:3">
+      <c r="A2924" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2924" s="2">
+        <f t="shared" si="57"/>
+        <v>94</v>
+      </c>
+      <c r="C2924" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:3">
+      <c r="A2925" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2925" s="2">
+        <f t="shared" si="57"/>
+        <v>95</v>
+      </c>
+      <c r="C2925" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:3">
+      <c r="A2926" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2926" s="2">
+        <f t="shared" si="57"/>
+        <v>96</v>
+      </c>
+      <c r="C2926" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:3">
+      <c r="A2927" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2927" s="2">
+        <f t="shared" si="57"/>
+        <v>97</v>
+      </c>
+      <c r="C2927" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:3">
+      <c r="A2928" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2928" s="2">
+        <f t="shared" si="57"/>
+        <v>98</v>
+      </c>
+      <c r="C2928" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:3">
+      <c r="A2929" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2929" s="2">
+        <f t="shared" si="57"/>
+        <v>99</v>
+      </c>
+      <c r="C2929" s="2">
+        <v>6.5838044145441769E-4</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:3">
+      <c r="A2930" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2930" s="2">
+        <f t="shared" si="57"/>
+        <v>100</v>
+      </c>
+      <c r="C2930" s="2">
         <v>6.5838044145441769E-4</v>
       </c>
     </row>
@@ -31716,5 +36614,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>